--- a/reports/Month to Date (Actual)_Visits.xlsx
+++ b/reports/Month to Date (Actual)_Visits.xlsx
@@ -31,13 +31,13 @@
     <t>Purgatory</t>
   </si>
   <si>
+    <t>Purgatory Tickets</t>
+  </si>
+  <si>
+    <t>Purgatory Passes</t>
+  </si>
+  <si>
     <t>Purgatory Comp Tickets</t>
-  </si>
-  <si>
-    <t>Purgatory Passes</t>
-  </si>
-  <si>
-    <t>Purgatory Tickets</t>
   </si>
 </sst>
 </file>
@@ -434,7 +434,7 @@
         <v>45992</v>
       </c>
       <c r="C2" s="2">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -445,10 +445,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>45993</v>
+        <v>45992</v>
       </c>
       <c r="C3" s="2">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
@@ -462,7 +462,7 @@
         <v>45993</v>
       </c>
       <c r="C4" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>6</v>
@@ -476,7 +476,7 @@
         <v>45992</v>
       </c>
       <c r="C5" s="2">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>6</v>
@@ -487,13 +487,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>45992</v>
+        <v>45993</v>
       </c>
       <c r="C6" s="2">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -504,10 +504,10 @@
         <v>45993</v>
       </c>
       <c r="C7" s="2">
-        <v>11</v>
+        <v>183</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -515,13 +515,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="2">
-        <v>45993</v>
+        <v>45992</v>
       </c>
       <c r="C8" s="2">
-        <v>183</v>
+        <v>15</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -529,10 +529,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="2">
-        <v>45992</v>
+        <v>45993</v>
       </c>
       <c r="C9" s="2">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>6</v>
@@ -546,10 +546,10 @@
         <v>45993</v>
       </c>
       <c r="C10" s="2">
-        <v>66</v>
+        <v>2</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -560,10 +560,10 @@
         <v>45992</v>
       </c>
       <c r="C11" s="2">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -574,7 +574,7 @@
         <v>45992</v>
       </c>
       <c r="C12" s="2">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>6</v>
@@ -588,10 +588,10 @@
         <v>45993</v>
       </c>
       <c r="C13" s="2">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/reports/Month to Date (Actual)_Visits.xlsx
+++ b/reports/Month to Date (Actual)_Visits.xlsx
@@ -34,10 +34,10 @@
     <t>Purgatory Passes</t>
   </si>
   <si>
+    <t>Purgatory Comp Tickets</t>
+  </si>
+  <si>
     <t>Purgatory Tickets</t>
-  </si>
-  <si>
-    <t>Purgatory Comp Tickets</t>
   </si>
 </sst>
 </file>
@@ -434,7 +434,7 @@
         <v>45992</v>
       </c>
       <c r="C2" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -448,7 +448,7 @@
         <v>45993</v>
       </c>
       <c r="C3" s="2">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
@@ -459,10 +459,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>45992</v>
+        <v>45993</v>
       </c>
       <c r="C4" s="2">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>5</v>
@@ -473,7 +473,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>45993</v>
+        <v>45992</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -487,13 +487,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>45992</v>
+        <v>45993</v>
       </c>
       <c r="C6" s="2">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -504,7 +504,7 @@
         <v>45992</v>
       </c>
       <c r="C7" s="2">
-        <v>59</v>
+        <v>200</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>5</v>
@@ -515,10 +515,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="2">
-        <v>45992</v>
+        <v>45993</v>
       </c>
       <c r="C8" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>5</v>
@@ -529,13 +529,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="2">
-        <v>45993</v>
+        <v>45992</v>
       </c>
       <c r="C9" s="2">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -543,13 +543,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="2">
-        <v>45993</v>
+        <v>45992</v>
       </c>
       <c r="C10" s="2">
-        <v>183</v>
+        <v>15</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -557,13 +557,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="2">
-        <v>45992</v>
+        <v>45993</v>
       </c>
       <c r="C11" s="2">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -574,7 +574,7 @@
         <v>45993</v>
       </c>
       <c r="C12" s="2">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>5</v>
@@ -585,13 +585,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="2">
-        <v>45993</v>
+        <v>45992</v>
       </c>
       <c r="C13" s="2">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/reports/Month to Date (Actual)_Visits.xlsx
+++ b/reports/Month to Date (Actual)_Visits.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="9">
   <si>
     <t>Resort</t>
   </si>
@@ -31,13 +31,16 @@
     <t>Purgatory</t>
   </si>
   <si>
+    <t>Purgatory Comp Tickets</t>
+  </si>
+  <si>
     <t>Purgatory Passes</t>
   </si>
   <si>
-    <t>Purgatory Comp Tickets</t>
+    <t>Purgatory Tickets</t>
   </si>
   <si>
-    <t>Purgatory Tickets</t>
+    <t>Purgatory Coaster</t>
   </si>
 </sst>
 </file>
@@ -400,7 +403,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -434,7 +437,7 @@
         <v>45992</v>
       </c>
       <c r="C2" s="2">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -445,10 +448,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>45993</v>
+        <v>45992</v>
       </c>
       <c r="C3" s="2">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
@@ -459,13 +462,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>45993</v>
+        <v>45992</v>
       </c>
       <c r="C4" s="2">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -476,10 +479,10 @@
         <v>45992</v>
       </c>
       <c r="C5" s="2">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -487,13 +490,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>45993</v>
+        <v>45992</v>
       </c>
       <c r="C6" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -504,10 +507,10 @@
         <v>45992</v>
       </c>
       <c r="C7" s="2">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -518,7 +521,7 @@
         <v>45993</v>
       </c>
       <c r="C8" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>5</v>
@@ -529,13 +532,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="2">
-        <v>45992</v>
+        <v>45993</v>
       </c>
       <c r="C9" s="2">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -543,10 +546,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="2">
-        <v>45992</v>
+        <v>45993</v>
       </c>
       <c r="C10" s="2">
-        <v>15</v>
+        <v>183</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>6</v>
@@ -560,10 +563,10 @@
         <v>45993</v>
       </c>
       <c r="C11" s="2">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -574,10 +577,10 @@
         <v>45993</v>
       </c>
       <c r="C12" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -585,13 +588,657 @@
         <v>4</v>
       </c>
       <c r="B13" s="2">
-        <v>45992</v>
+        <v>45993</v>
       </c>
       <c r="C13" s="2">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="2">
+        <v>45994</v>
+      </c>
+      <c r="C14" s="2">
+        <v>24</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="2">
+        <v>45994</v>
+      </c>
+      <c r="C15" s="2">
+        <v>78</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="2">
+        <v>45994</v>
+      </c>
+      <c r="C16" s="2">
+        <v>279</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="2">
+        <v>45994</v>
+      </c>
+      <c r="C17" s="2">
+        <v>66</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="2">
+        <v>45994</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="2">
+        <v>45994</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="2">
+        <v>45995</v>
+      </c>
+      <c r="C20" s="2">
+        <v>29</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="2">
+        <v>45995</v>
+      </c>
+      <c r="C21" s="2">
+        <v>69</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="2">
+        <v>45995</v>
+      </c>
+      <c r="C22" s="2">
+        <v>357</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="2">
+        <v>45995</v>
+      </c>
+      <c r="C23" s="2">
+        <v>75</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="2">
+        <v>45995</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="2">
+        <v>45996</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="2">
+        <v>45996</v>
+      </c>
+      <c r="C26" s="2">
+        <v>27</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="2">
+        <v>45996</v>
+      </c>
+      <c r="C27" s="2">
+        <v>70</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="2">
+        <v>45996</v>
+      </c>
+      <c r="C28" s="2">
+        <v>409</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="2">
+        <v>45996</v>
+      </c>
+      <c r="C29" s="2">
+        <v>105</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="2">
+        <v>45996</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="2">
+        <v>45996</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="2">
+        <v>45996</v>
+      </c>
+      <c r="C32" s="2">
+        <v>2</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="2">
+        <v>45997</v>
+      </c>
+      <c r="C33" s="2">
+        <v>4</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="2">
+        <v>45997</v>
+      </c>
+      <c r="C34" s="2">
+        <v>62</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="2">
+        <v>45997</v>
+      </c>
+      <c r="C35" s="2">
+        <v>52</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="2">
+        <v>45997</v>
+      </c>
+      <c r="C36" s="2">
+        <v>115</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="2">
+        <v>45997</v>
+      </c>
+      <c r="C37" s="2">
+        <v>1156</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="2">
+        <v>45997</v>
+      </c>
+      <c r="C38" s="2">
+        <v>250</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="2">
+        <v>45997</v>
+      </c>
+      <c r="C39" s="2">
+        <v>1</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="2">
+        <v>45997</v>
+      </c>
+      <c r="C40" s="2">
+        <v>14</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="2">
+        <v>45997</v>
+      </c>
+      <c r="C41" s="2">
+        <v>10</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="2">
+        <v>45998</v>
+      </c>
+      <c r="C42" s="2">
+        <v>4</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="2">
+        <v>45998</v>
+      </c>
+      <c r="C43" s="2">
+        <v>85</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="2">
+        <v>45998</v>
+      </c>
+      <c r="C44" s="2">
+        <v>35</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" s="2">
+        <v>45998</v>
+      </c>
+      <c r="C45" s="2">
+        <v>132</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="2">
+        <v>45998</v>
+      </c>
+      <c r="C46" s="2">
+        <v>1061</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="2">
+        <v>45998</v>
+      </c>
+      <c r="C47" s="2">
+        <v>142</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" s="2">
+        <v>45998</v>
+      </c>
+      <c r="C48" s="2">
+        <v>9</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" s="2">
+        <v>45998</v>
+      </c>
+      <c r="C49" s="2">
+        <v>15</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="2">
+        <v>45999</v>
+      </c>
+      <c r="C50" s="2">
+        <v>19</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="2">
+        <v>45999</v>
+      </c>
+      <c r="C51" s="2">
+        <v>106</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" s="2">
+        <v>45999</v>
+      </c>
+      <c r="C52" s="2">
+        <v>358</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" s="2">
+        <v>45999</v>
+      </c>
+      <c r="C53" s="2">
+        <v>117</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" s="2">
+        <v>45999</v>
+      </c>
+      <c r="C54" s="2">
+        <v>4</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" s="2">
+        <v>46000</v>
+      </c>
+      <c r="C55" s="2">
+        <v>21</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" s="2">
+        <v>46000</v>
+      </c>
+      <c r="C56" s="2">
+        <v>82</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" s="2">
+        <v>46000</v>
+      </c>
+      <c r="C57" s="2">
+        <v>322</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" s="2">
+        <v>46000</v>
+      </c>
+      <c r="C58" s="2">
+        <v>118</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" s="2">
+        <v>46000</v>
+      </c>
+      <c r="C59" s="2">
+        <v>2</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/reports/Month to Date (Actual)_Visits.xlsx
+++ b/reports/Month to Date (Actual)_Visits.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="9">
   <si>
     <t>Resort</t>
   </si>
@@ -28,19 +28,19 @@
     <t>Location</t>
   </si>
   <si>
-    <t>Purgatory</t>
+    <t>Snowbowl</t>
   </si>
   <si>
-    <t>Purgatory Comp Tickets</t>
+    <t>Snowbowl Passes</t>
   </si>
   <si>
-    <t>Purgatory Passes</t>
+    <t>Snowbowl Comp Tickets</t>
   </si>
   <si>
-    <t>Purgatory Tickets</t>
+    <t>Snowbowl Tickets</t>
   </si>
   <si>
-    <t>Purgatory Coaster</t>
+    <t>Snowbowl Uplift Tickets</t>
   </si>
 </sst>
 </file>
@@ -403,16 +403,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:D83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -437,7 +437,7 @@
         <v>45992</v>
       </c>
       <c r="C2" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -451,10 +451,10 @@
         <v>45992</v>
       </c>
       <c r="C3" s="2">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -465,10 +465,10 @@
         <v>45992</v>
       </c>
       <c r="C4" s="2">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -479,10 +479,10 @@
         <v>45992</v>
       </c>
       <c r="C5" s="2">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -496,7 +496,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -507,7 +507,7 @@
         <v>45992</v>
       </c>
       <c r="C7" s="2">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>6</v>
@@ -518,10 +518,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="2">
-        <v>45993</v>
+        <v>45992</v>
       </c>
       <c r="C8" s="2">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>5</v>
@@ -532,13 +532,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="2">
-        <v>45993</v>
+        <v>45992</v>
       </c>
       <c r="C9" s="2">
-        <v>55</v>
+        <v>656</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -546,13 +546,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="2">
-        <v>45993</v>
+        <v>45992</v>
       </c>
       <c r="C10" s="2">
-        <v>183</v>
+        <v>797</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -560,13 +560,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="2">
-        <v>45993</v>
+        <v>45992</v>
       </c>
       <c r="C11" s="2">
-        <v>66</v>
+        <v>117</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -577,10 +577,10 @@
         <v>45993</v>
       </c>
       <c r="C12" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -591,10 +591,10 @@
         <v>45993</v>
       </c>
       <c r="C13" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -602,10 +602,10 @@
         <v>4</v>
       </c>
       <c r="B14" s="2">
-        <v>45994</v>
+        <v>45993</v>
       </c>
       <c r="C14" s="2">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>5</v>
@@ -616,10 +616,10 @@
         <v>4</v>
       </c>
       <c r="B15" s="2">
-        <v>45994</v>
+        <v>45993</v>
       </c>
       <c r="C15" s="2">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>6</v>
@@ -630,13 +630,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="2">
-        <v>45994</v>
+        <v>45993</v>
       </c>
       <c r="C16" s="2">
-        <v>279</v>
+        <v>66</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -644,13 +644,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="2">
-        <v>45994</v>
+        <v>45993</v>
       </c>
       <c r="C17" s="2">
-        <v>66</v>
+        <v>488</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -658,13 +658,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="2">
-        <v>45994</v>
+        <v>45993</v>
       </c>
       <c r="C18" s="2">
-        <v>1</v>
+        <v>738</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -672,13 +672,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="2">
-        <v>45994</v>
+        <v>45993</v>
       </c>
       <c r="C19" s="2">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -686,10 +686,10 @@
         <v>4</v>
       </c>
       <c r="B20" s="2">
-        <v>45995</v>
+        <v>45994</v>
       </c>
       <c r="C20" s="2">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>5</v>
@@ -700,13 +700,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="2">
-        <v>45995</v>
+        <v>45994</v>
       </c>
       <c r="C21" s="2">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -714,13 +714,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="2">
-        <v>45995</v>
+        <v>45994</v>
       </c>
       <c r="C22" s="2">
-        <v>357</v>
+        <v>3</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -728,13 +728,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="2">
-        <v>45995</v>
+        <v>45994</v>
       </c>
       <c r="C23" s="2">
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -742,13 +742,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="2">
-        <v>45995</v>
+        <v>45994</v>
       </c>
       <c r="C24" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -756,10 +756,10 @@
         <v>4</v>
       </c>
       <c r="B25" s="2">
-        <v>45996</v>
+        <v>45994</v>
       </c>
       <c r="C25" s="2">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>6</v>
@@ -770,10 +770,10 @@
         <v>4</v>
       </c>
       <c r="B26" s="2">
-        <v>45996</v>
+        <v>45994</v>
       </c>
       <c r="C26" s="2">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>5</v>
@@ -784,13 +784,13 @@
         <v>4</v>
       </c>
       <c r="B27" s="2">
-        <v>45996</v>
+        <v>45994</v>
       </c>
       <c r="C27" s="2">
-        <v>70</v>
+        <v>593</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -798,13 +798,13 @@
         <v>4</v>
       </c>
       <c r="B28" s="2">
-        <v>45996</v>
+        <v>45994</v>
       </c>
       <c r="C28" s="2">
-        <v>409</v>
+        <v>712</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -812,13 +812,13 @@
         <v>4</v>
       </c>
       <c r="B29" s="2">
-        <v>45996</v>
+        <v>45994</v>
       </c>
       <c r="C29" s="2">
-        <v>105</v>
+        <v>33</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -826,13 +826,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="2">
-        <v>45996</v>
+        <v>45995</v>
       </c>
       <c r="C30" s="2">
         <v>1</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -840,13 +840,13 @@
         <v>4</v>
       </c>
       <c r="B31" s="2">
-        <v>45996</v>
+        <v>45995</v>
       </c>
       <c r="C31" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -854,13 +854,13 @@
         <v>4</v>
       </c>
       <c r="B32" s="2">
-        <v>45996</v>
+        <v>45995</v>
       </c>
       <c r="C32" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -868,10 +868,10 @@
         <v>4</v>
       </c>
       <c r="B33" s="2">
-        <v>45997</v>
+        <v>45995</v>
       </c>
       <c r="C33" s="2">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>6</v>
@@ -882,13 +882,13 @@
         <v>4</v>
       </c>
       <c r="B34" s="2">
-        <v>45997</v>
+        <v>45995</v>
       </c>
       <c r="C34" s="2">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -896,10 +896,10 @@
         <v>4</v>
       </c>
       <c r="B35" s="2">
-        <v>45997</v>
+        <v>45995</v>
       </c>
       <c r="C35" s="2">
-        <v>52</v>
+        <v>803</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>5</v>
@@ -910,13 +910,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="2">
-        <v>45997</v>
+        <v>45995</v>
       </c>
       <c r="C36" s="2">
-        <v>115</v>
+        <v>865</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -924,13 +924,13 @@
         <v>4</v>
       </c>
       <c r="B37" s="2">
-        <v>45997</v>
+        <v>45995</v>
       </c>
       <c r="C37" s="2">
-        <v>1156</v>
+        <v>64</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -938,13 +938,13 @@
         <v>4</v>
       </c>
       <c r="B38" s="2">
-        <v>45997</v>
+        <v>45996</v>
       </c>
       <c r="C38" s="2">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -952,13 +952,13 @@
         <v>4</v>
       </c>
       <c r="B39" s="2">
-        <v>45997</v>
+        <v>45996</v>
       </c>
       <c r="C39" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -966,13 +966,13 @@
         <v>4</v>
       </c>
       <c r="B40" s="2">
-        <v>45997</v>
+        <v>45996</v>
       </c>
       <c r="C40" s="2">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -980,10 +980,10 @@
         <v>4</v>
       </c>
       <c r="B41" s="2">
-        <v>45997</v>
+        <v>45996</v>
       </c>
       <c r="C41" s="2">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>6</v>
@@ -994,13 +994,13 @@
         <v>4</v>
       </c>
       <c r="B42" s="2">
-        <v>45998</v>
+        <v>45996</v>
       </c>
       <c r="C42" s="2">
-        <v>4</v>
+        <v>94</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1008,13 +1008,13 @@
         <v>4</v>
       </c>
       <c r="B43" s="2">
-        <v>45998</v>
+        <v>45996</v>
       </c>
       <c r="C43" s="2">
-        <v>85</v>
+        <v>1326</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1022,13 +1022,13 @@
         <v>4</v>
       </c>
       <c r="B44" s="2">
-        <v>45998</v>
+        <v>45996</v>
       </c>
       <c r="C44" s="2">
-        <v>35</v>
+        <v>1093</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1036,13 +1036,13 @@
         <v>4</v>
       </c>
       <c r="B45" s="2">
-        <v>45998</v>
+        <v>45996</v>
       </c>
       <c r="C45" s="2">
-        <v>132</v>
+        <v>85</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1050,13 +1050,13 @@
         <v>4</v>
       </c>
       <c r="B46" s="2">
-        <v>45998</v>
+        <v>45996</v>
       </c>
       <c r="C46" s="2">
-        <v>1061</v>
+        <v>1</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1064,13 +1064,13 @@
         <v>4</v>
       </c>
       <c r="B47" s="2">
-        <v>45998</v>
+        <v>45997</v>
       </c>
       <c r="C47" s="2">
-        <v>142</v>
+        <v>3</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1078,13 +1078,13 @@
         <v>4</v>
       </c>
       <c r="B48" s="2">
-        <v>45998</v>
+        <v>45997</v>
       </c>
       <c r="C48" s="2">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1092,13 +1092,13 @@
         <v>4</v>
       </c>
       <c r="B49" s="2">
-        <v>45998</v>
+        <v>45997</v>
       </c>
       <c r="C49" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1106,13 +1106,13 @@
         <v>4</v>
       </c>
       <c r="B50" s="2">
-        <v>45999</v>
+        <v>45997</v>
       </c>
       <c r="C50" s="2">
-        <v>19</v>
+        <v>173</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1120,13 +1120,13 @@
         <v>4</v>
       </c>
       <c r="B51" s="2">
-        <v>45999</v>
+        <v>45997</v>
       </c>
       <c r="C51" s="2">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1134,13 +1134,13 @@
         <v>4</v>
       </c>
       <c r="B52" s="2">
-        <v>45999</v>
+        <v>45997</v>
       </c>
       <c r="C52" s="2">
-        <v>358</v>
+        <v>1192</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1148,10 +1148,10 @@
         <v>4</v>
       </c>
       <c r="B53" s="2">
-        <v>45999</v>
+        <v>45997</v>
       </c>
       <c r="C53" s="2">
-        <v>117</v>
+        <v>1628</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>7</v>
@@ -1162,13 +1162,13 @@
         <v>4</v>
       </c>
       <c r="B54" s="2">
-        <v>45999</v>
+        <v>45997</v>
       </c>
       <c r="C54" s="2">
-        <v>4</v>
+        <v>235</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1176,10 +1176,10 @@
         <v>4</v>
       </c>
       <c r="B55" s="2">
-        <v>46000</v>
+        <v>45997</v>
       </c>
       <c r="C55" s="2">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>5</v>
@@ -1190,13 +1190,13 @@
         <v>4</v>
       </c>
       <c r="B56" s="2">
-        <v>46000</v>
+        <v>45997</v>
       </c>
       <c r="C56" s="2">
-        <v>82</v>
+        <v>1</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1204,13 +1204,13 @@
         <v>4</v>
       </c>
       <c r="B57" s="2">
-        <v>46000</v>
+        <v>45998</v>
       </c>
       <c r="C57" s="2">
-        <v>322</v>
+        <v>2</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1218,13 +1218,13 @@
         <v>4</v>
       </c>
       <c r="B58" s="2">
-        <v>46000</v>
+        <v>45998</v>
       </c>
       <c r="C58" s="2">
-        <v>118</v>
+        <v>1</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1232,13 +1232,349 @@
         <v>4</v>
       </c>
       <c r="B59" s="2">
+        <v>45998</v>
+      </c>
+      <c r="C59" s="2">
+        <v>21</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" s="2">
+        <v>45998</v>
+      </c>
+      <c r="C60" s="2">
+        <v>3</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61" s="2">
+        <v>45998</v>
+      </c>
+      <c r="C61" s="2">
+        <v>166</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" s="2">
+        <v>45998</v>
+      </c>
+      <c r="C62" s="2">
+        <v>93</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" s="2">
+        <v>45998</v>
+      </c>
+      <c r="C63" s="2">
+        <v>1151</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64" s="2">
+        <v>45998</v>
+      </c>
+      <c r="C64" s="2">
+        <v>1402</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65" s="2">
+        <v>45998</v>
+      </c>
+      <c r="C65" s="2">
+        <v>205</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" s="2">
+        <v>45999</v>
+      </c>
+      <c r="C66" s="2">
+        <v>2</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67" s="2">
+        <v>45999</v>
+      </c>
+      <c r="C67" s="2">
+        <v>7</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68" s="2">
+        <v>45999</v>
+      </c>
+      <c r="C68" s="2">
+        <v>9</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69" s="2">
+        <v>45999</v>
+      </c>
+      <c r="C69" s="2">
+        <v>77</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B70" s="2">
+        <v>45999</v>
+      </c>
+      <c r="C70" s="2">
+        <v>66</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B71" s="2">
+        <v>45999</v>
+      </c>
+      <c r="C71" s="2">
+        <v>718</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B72" s="2">
+        <v>45999</v>
+      </c>
+      <c r="C72" s="2">
+        <v>1059</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B73" s="2">
+        <v>45999</v>
+      </c>
+      <c r="C73" s="2">
+        <v>97</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B74" s="2">
+        <v>45999</v>
+      </c>
+      <c r="C74" s="2">
+        <v>1</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B75" s="2">
         <v>46000</v>
       </c>
-      <c r="C59" s="2">
+      <c r="C75" s="2">
+        <v>5</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B76" s="2">
+        <v>46000</v>
+      </c>
+      <c r="C76" s="2">
         <v>2</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D76" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B77" s="2">
+        <v>46000</v>
+      </c>
+      <c r="C77" s="2">
+        <v>7</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B78" s="2">
+        <v>46000</v>
+      </c>
+      <c r="C78" s="2">
+        <v>7</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B79" s="2">
+        <v>46000</v>
+      </c>
+      <c r="C79" s="2">
+        <v>85</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B80" s="2">
+        <v>46000</v>
+      </c>
+      <c r="C80" s="2">
+        <v>79</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B81" s="2">
+        <v>46000</v>
+      </c>
+      <c r="C81" s="2">
+        <v>570</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B82" s="2">
+        <v>46000</v>
+      </c>
+      <c r="C82" s="2">
+        <v>918</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B83" s="2">
+        <v>46000</v>
+      </c>
+      <c r="C83" s="2">
+        <v>53</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/reports/Month to Date (Actual)_Visits.xlsx
+++ b/reports/Month to Date (Actual)_Visits.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="9">
   <si>
     <t>Resort</t>
   </si>
@@ -28,19 +28,19 @@
     <t>Location</t>
   </si>
   <si>
-    <t>Snowbowl</t>
+    <t>Purgatory</t>
   </si>
   <si>
-    <t>Snowbowl Passes</t>
+    <t>Purgatory Passes</t>
   </si>
   <si>
-    <t>Snowbowl Comp Tickets</t>
+    <t>Purgatory Comp Tickets</t>
   </si>
   <si>
-    <t>Snowbowl Tickets</t>
+    <t>Purgatory Coaster</t>
   </si>
   <si>
-    <t>Snowbowl Uplift Tickets</t>
+    <t>Purgatory Tickets</t>
   </si>
 </sst>
 </file>
@@ -403,16 +403,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D83"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -437,7 +437,7 @@
         <v>45992</v>
       </c>
       <c r="C2" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -448,13 +448,13 @@
         <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>45992</v>
+        <v>45993</v>
       </c>
       <c r="C3" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -462,10 +462,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>45992</v>
+        <v>45993</v>
       </c>
       <c r="C4" s="2">
-        <v>2</v>
+        <v>183</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>5</v>
@@ -476,10 +476,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>45992</v>
+        <v>45994</v>
       </c>
       <c r="C5" s="2">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>5</v>
@@ -490,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>45992</v>
+        <v>45995</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -504,10 +504,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="2">
-        <v>45992</v>
+        <v>45996</v>
       </c>
       <c r="C7" s="2">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>6</v>
@@ -518,10 +518,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="2">
-        <v>45992</v>
+        <v>45997</v>
       </c>
       <c r="C8" s="2">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>5</v>
@@ -532,13 +532,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="2">
-        <v>45992</v>
+        <v>45999</v>
       </c>
       <c r="C9" s="2">
-        <v>656</v>
+        <v>19</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -546,13 +546,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="2">
-        <v>45992</v>
+        <v>45994</v>
       </c>
       <c r="C10" s="2">
-        <v>797</v>
+        <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -560,13 +560,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="2">
-        <v>45992</v>
+        <v>45996</v>
       </c>
       <c r="C11" s="2">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -574,10 +574,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="2">
-        <v>45993</v>
+        <v>45997</v>
       </c>
       <c r="C12" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>5</v>
@@ -588,10 +588,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="2">
-        <v>45993</v>
+        <v>45997</v>
       </c>
       <c r="C13" s="2">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>5</v>
@@ -602,13 +602,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="2">
-        <v>45993</v>
+        <v>45998</v>
       </c>
       <c r="C14" s="2">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -616,10 +616,10 @@
         <v>4</v>
       </c>
       <c r="B15" s="2">
-        <v>45993</v>
+        <v>45998</v>
       </c>
       <c r="C15" s="2">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>6</v>
@@ -630,10 +630,10 @@
         <v>4</v>
       </c>
       <c r="B16" s="2">
-        <v>45993</v>
+        <v>45999</v>
       </c>
       <c r="C16" s="2">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>5</v>
@@ -644,10 +644,10 @@
         <v>4</v>
       </c>
       <c r="B17" s="2">
-        <v>45993</v>
+        <v>45992</v>
       </c>
       <c r="C17" s="2">
-        <v>488</v>
+        <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>5</v>
@@ -661,10 +661,10 @@
         <v>45993</v>
       </c>
       <c r="C18" s="2">
-        <v>738</v>
+        <v>66</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -672,10 +672,10 @@
         <v>4</v>
       </c>
       <c r="B19" s="2">
-        <v>45993</v>
+        <v>45996</v>
       </c>
       <c r="C19" s="2">
-        <v>40</v>
+        <v>104</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>8</v>
@@ -686,13 +686,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="2">
-        <v>45994</v>
+        <v>45999</v>
       </c>
       <c r="C20" s="2">
-        <v>4</v>
+        <v>115</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -700,10 +700,10 @@
         <v>4</v>
       </c>
       <c r="B21" s="2">
-        <v>45994</v>
+        <v>46000</v>
       </c>
       <c r="C21" s="2">
-        <v>1</v>
+        <v>322</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>5</v>
@@ -714,10 +714,10 @@
         <v>4</v>
       </c>
       <c r="B22" s="2">
-        <v>45994</v>
+        <v>45992</v>
       </c>
       <c r="C22" s="2">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>5</v>
@@ -728,10 +728,10 @@
         <v>4</v>
       </c>
       <c r="B23" s="2">
-        <v>45994</v>
+        <v>45993</v>
       </c>
       <c r="C23" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>5</v>
@@ -745,7 +745,7 @@
         <v>45994</v>
       </c>
       <c r="C24" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>5</v>
@@ -756,13 +756,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="2">
-        <v>45994</v>
+        <v>45995</v>
       </c>
       <c r="C25" s="2">
-        <v>53</v>
+        <v>357</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -770,10 +770,10 @@
         <v>4</v>
       </c>
       <c r="B26" s="2">
-        <v>45994</v>
+        <v>45997</v>
       </c>
       <c r="C26" s="2">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>5</v>
@@ -784,10 +784,10 @@
         <v>4</v>
       </c>
       <c r="B27" s="2">
-        <v>45994</v>
+        <v>45997</v>
       </c>
       <c r="C27" s="2">
-        <v>593</v>
+        <v>10</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>5</v>
@@ -798,13 +798,13 @@
         <v>4</v>
       </c>
       <c r="B28" s="2">
-        <v>45994</v>
+        <v>45998</v>
       </c>
       <c r="C28" s="2">
-        <v>712</v>
+        <v>1061</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -812,10 +812,10 @@
         <v>4</v>
       </c>
       <c r="B29" s="2">
-        <v>45994</v>
+        <v>45998</v>
       </c>
       <c r="C29" s="2">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>8</v>
@@ -826,10 +826,10 @@
         <v>4</v>
       </c>
       <c r="B30" s="2">
-        <v>45995</v>
+        <v>46000</v>
       </c>
       <c r="C30" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>5</v>
@@ -840,10 +840,10 @@
         <v>4</v>
       </c>
       <c r="B31" s="2">
-        <v>45995</v>
+        <v>45998</v>
       </c>
       <c r="C31" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>5</v>
@@ -854,10 +854,10 @@
         <v>4</v>
       </c>
       <c r="B32" s="2">
-        <v>45995</v>
+        <v>45998</v>
       </c>
       <c r="C32" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>5</v>
@@ -868,13 +868,13 @@
         <v>4</v>
       </c>
       <c r="B33" s="2">
-        <v>45995</v>
+        <v>46000</v>
       </c>
       <c r="C33" s="2">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -882,10 +882,10 @@
         <v>4</v>
       </c>
       <c r="B34" s="2">
-        <v>45995</v>
+        <v>45992</v>
       </c>
       <c r="C34" s="2">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>5</v>
@@ -896,13 +896,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="2">
-        <v>45995</v>
+        <v>45994</v>
       </c>
       <c r="C35" s="2">
-        <v>803</v>
+        <v>21</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -910,13 +910,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="2">
-        <v>45995</v>
+        <v>45994</v>
       </c>
       <c r="C36" s="2">
-        <v>865</v>
+        <v>279</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -927,10 +927,10 @@
         <v>45995</v>
       </c>
       <c r="C37" s="2">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -952,13 +952,13 @@
         <v>4</v>
       </c>
       <c r="B39" s="2">
-        <v>45996</v>
+        <v>45997</v>
       </c>
       <c r="C39" s="2">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -966,10 +966,10 @@
         <v>4</v>
       </c>
       <c r="B40" s="2">
-        <v>45996</v>
+        <v>45997</v>
       </c>
       <c r="C40" s="2">
-        <v>2</v>
+        <v>1156</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>5</v>
@@ -980,13 +980,13 @@
         <v>4</v>
       </c>
       <c r="B41" s="2">
-        <v>45996</v>
+        <v>45998</v>
       </c>
       <c r="C41" s="2">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -994,13 +994,13 @@
         <v>4</v>
       </c>
       <c r="B42" s="2">
-        <v>45996</v>
+        <v>46000</v>
       </c>
       <c r="C42" s="2">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1008,13 +1008,13 @@
         <v>4</v>
       </c>
       <c r="B43" s="2">
-        <v>45996</v>
+        <v>45992</v>
       </c>
       <c r="C43" s="2">
-        <v>1326</v>
+        <v>49</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1022,13 +1022,13 @@
         <v>4</v>
       </c>
       <c r="B44" s="2">
-        <v>45996</v>
+        <v>45995</v>
       </c>
       <c r="C44" s="2">
-        <v>1093</v>
+        <v>75</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1039,10 +1039,10 @@
         <v>45996</v>
       </c>
       <c r="C45" s="2">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1067,10 +1067,10 @@
         <v>45997</v>
       </c>
       <c r="C47" s="2">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1078,10 +1078,10 @@
         <v>4</v>
       </c>
       <c r="B48" s="2">
-        <v>45997</v>
+        <v>45998</v>
       </c>
       <c r="C48" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>5</v>
@@ -1092,13 +1092,13 @@
         <v>4</v>
       </c>
       <c r="B49" s="2">
-        <v>45997</v>
+        <v>45992</v>
       </c>
       <c r="C49" s="2">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1106,13 +1106,13 @@
         <v>4</v>
       </c>
       <c r="B50" s="2">
-        <v>45997</v>
+        <v>45993</v>
       </c>
       <c r="C50" s="2">
-        <v>173</v>
+        <v>55</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1120,10 +1120,10 @@
         <v>4</v>
       </c>
       <c r="B51" s="2">
-        <v>45997</v>
+        <v>45993</v>
       </c>
       <c r="C51" s="2">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>5</v>
@@ -1134,13 +1134,13 @@
         <v>4</v>
       </c>
       <c r="B52" s="2">
-        <v>45997</v>
+        <v>45994</v>
       </c>
       <c r="C52" s="2">
-        <v>1192</v>
+        <v>64</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1148,13 +1148,13 @@
         <v>4</v>
       </c>
       <c r="B53" s="2">
-        <v>45997</v>
+        <v>45995</v>
       </c>
       <c r="C53" s="2">
-        <v>1628</v>
+        <v>29</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1162,13 +1162,13 @@
         <v>4</v>
       </c>
       <c r="B54" s="2">
-        <v>45997</v>
+        <v>45996</v>
       </c>
       <c r="C54" s="2">
-        <v>235</v>
+        <v>409</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1176,10 +1176,10 @@
         <v>4</v>
       </c>
       <c r="B55" s="2">
-        <v>45997</v>
+        <v>45996</v>
       </c>
       <c r="C55" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>5</v>
@@ -1193,10 +1193,10 @@
         <v>45997</v>
       </c>
       <c r="C56" s="2">
-        <v>1</v>
+        <v>248</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1204,10 +1204,10 @@
         <v>4</v>
       </c>
       <c r="B57" s="2">
-        <v>45998</v>
+        <v>45999</v>
       </c>
       <c r="C57" s="2">
-        <v>2</v>
+        <v>358</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>5</v>
@@ -1218,10 +1218,10 @@
         <v>4</v>
       </c>
       <c r="B58" s="2">
-        <v>45998</v>
+        <v>45999</v>
       </c>
       <c r="C58" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>5</v>
@@ -1232,348 +1232,12 @@
         <v>4</v>
       </c>
       <c r="B59" s="2">
-        <v>45998</v>
+        <v>46000</v>
       </c>
       <c r="C59" s="2">
-        <v>21</v>
+        <v>118</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B60" s="2">
-        <v>45998</v>
-      </c>
-      <c r="C60" s="2">
-        <v>3</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B61" s="2">
-        <v>45998</v>
-      </c>
-      <c r="C61" s="2">
-        <v>166</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B62" s="2">
-        <v>45998</v>
-      </c>
-      <c r="C62" s="2">
-        <v>93</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B63" s="2">
-        <v>45998</v>
-      </c>
-      <c r="C63" s="2">
-        <v>1151</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B64" s="2">
-        <v>45998</v>
-      </c>
-      <c r="C64" s="2">
-        <v>1402</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B65" s="2">
-        <v>45998</v>
-      </c>
-      <c r="C65" s="2">
-        <v>205</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B66" s="2">
-        <v>45999</v>
-      </c>
-      <c r="C66" s="2">
-        <v>2</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B67" s="2">
-        <v>45999</v>
-      </c>
-      <c r="C67" s="2">
-        <v>7</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B68" s="2">
-        <v>45999</v>
-      </c>
-      <c r="C68" s="2">
-        <v>9</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B69" s="2">
-        <v>45999</v>
-      </c>
-      <c r="C69" s="2">
-        <v>77</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B70" s="2">
-        <v>45999</v>
-      </c>
-      <c r="C70" s="2">
-        <v>66</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B71" s="2">
-        <v>45999</v>
-      </c>
-      <c r="C71" s="2">
-        <v>718</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B72" s="2">
-        <v>45999</v>
-      </c>
-      <c r="C72" s="2">
-        <v>1059</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B73" s="2">
-        <v>45999</v>
-      </c>
-      <c r="C73" s="2">
-        <v>97</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B74" s="2">
-        <v>45999</v>
-      </c>
-      <c r="C74" s="2">
-        <v>1</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B75" s="2">
-        <v>46000</v>
-      </c>
-      <c r="C75" s="2">
-        <v>5</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B76" s="2">
-        <v>46000</v>
-      </c>
-      <c r="C76" s="2">
-        <v>2</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B77" s="2">
-        <v>46000</v>
-      </c>
-      <c r="C77" s="2">
-        <v>7</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B78" s="2">
-        <v>46000</v>
-      </c>
-      <c r="C78" s="2">
-        <v>7</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B79" s="2">
-        <v>46000</v>
-      </c>
-      <c r="C79" s="2">
-        <v>85</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B80" s="2">
-        <v>46000</v>
-      </c>
-      <c r="C80" s="2">
-        <v>79</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B81" s="2">
-        <v>46000</v>
-      </c>
-      <c r="C81" s="2">
-        <v>570</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B82" s="2">
-        <v>46000</v>
-      </c>
-      <c r="C82" s="2">
-        <v>918</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B83" s="2">
-        <v>46000</v>
-      </c>
-      <c r="C83" s="2">
-        <v>53</v>
-      </c>
-      <c r="D83" s="2" t="s">
         <v>8</v>
       </c>
     </row>

--- a/reports/Month to Date (Actual)_Visits.xlsx
+++ b/reports/Month to Date (Actual)_Visits.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="9">
   <si>
     <t>Resort</t>
   </si>
@@ -34,13 +34,13 @@
     <t>Purgatory Passes</t>
   </si>
   <si>
-    <t>Purgatory Comp Tickets</t>
+    <t>Purgatory Tickets</t>
   </si>
   <si>
     <t>Purgatory Coaster</t>
   </si>
   <si>
-    <t>Purgatory Tickets</t>
+    <t>Purgatory Comp Tickets</t>
   </si>
 </sst>
 </file>
@@ -403,7 +403,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -434,10 +434,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2">
-        <v>45992</v>
+        <v>45998</v>
       </c>
       <c r="C2" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -448,13 +448,13 @@
         <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>45993</v>
+        <v>45998</v>
       </c>
       <c r="C3" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -462,10 +462,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>45993</v>
+        <v>46000</v>
       </c>
       <c r="C4" s="2">
-        <v>183</v>
+        <v>82</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>5</v>
@@ -476,10 +476,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>45994</v>
+        <v>46001</v>
       </c>
       <c r="C5" s="2">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>5</v>
@@ -490,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>45995</v>
+        <v>46001</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -504,10 +504,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="2">
-        <v>45996</v>
+        <v>45992</v>
       </c>
       <c r="C7" s="2">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>6</v>
@@ -518,13 +518,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="2">
-        <v>45997</v>
+        <v>45995</v>
       </c>
       <c r="C8" s="2">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -532,13 +532,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="2">
-        <v>45999</v>
+        <v>45996</v>
       </c>
       <c r="C9" s="2">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -546,7 +546,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="2">
-        <v>45994</v>
+        <v>45996</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
@@ -560,13 +560,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="2">
-        <v>45996</v>
+        <v>45997</v>
       </c>
       <c r="C11" s="2">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -574,10 +574,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="2">
-        <v>45997</v>
+        <v>45998</v>
       </c>
       <c r="C12" s="2">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>5</v>
@@ -588,10 +588,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="2">
-        <v>45997</v>
+        <v>45992</v>
       </c>
       <c r="C13" s="2">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>5</v>
@@ -602,13 +602,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="2">
-        <v>45998</v>
+        <v>45993</v>
       </c>
       <c r="C14" s="2">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -616,13 +616,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="2">
-        <v>45998</v>
+        <v>45993</v>
       </c>
       <c r="C15" s="2">
-        <v>34</v>
+        <v>183</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -630,10 +630,10 @@
         <v>4</v>
       </c>
       <c r="B16" s="2">
-        <v>45999</v>
+        <v>45994</v>
       </c>
       <c r="C16" s="2">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>5</v>
@@ -644,7 +644,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="2">
-        <v>45992</v>
+        <v>45995</v>
       </c>
       <c r="C17" s="2">
         <v>1</v>
@@ -658,10 +658,10 @@
         <v>4</v>
       </c>
       <c r="B18" s="2">
-        <v>45993</v>
+        <v>45996</v>
       </c>
       <c r="C18" s="2">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>8</v>
@@ -672,13 +672,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="2">
-        <v>45996</v>
+        <v>45997</v>
       </c>
       <c r="C19" s="2">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -689,7 +689,7 @@
         <v>45999</v>
       </c>
       <c r="C20" s="2">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>8</v>
@@ -700,10 +700,10 @@
         <v>4</v>
       </c>
       <c r="B21" s="2">
-        <v>46000</v>
+        <v>45992</v>
       </c>
       <c r="C21" s="2">
-        <v>322</v>
+        <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>5</v>
@@ -714,13 +714,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="2">
-        <v>45992</v>
+        <v>45993</v>
       </c>
       <c r="C22" s="2">
-        <v>200</v>
+        <v>66</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -728,13 +728,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="2">
-        <v>45993</v>
+        <v>45996</v>
       </c>
       <c r="C23" s="2">
-        <v>1</v>
+        <v>104</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -742,13 +742,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="2">
-        <v>45994</v>
+        <v>45999</v>
       </c>
       <c r="C24" s="2">
-        <v>1</v>
+        <v>115</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -756,10 +756,10 @@
         <v>4</v>
       </c>
       <c r="B25" s="2">
-        <v>45995</v>
+        <v>46000</v>
       </c>
       <c r="C25" s="2">
-        <v>357</v>
+        <v>322</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>5</v>
@@ -770,7 +770,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="2">
-        <v>45997</v>
+        <v>45994</v>
       </c>
       <c r="C26" s="2">
         <v>1</v>
@@ -784,10 +784,10 @@
         <v>4</v>
       </c>
       <c r="B27" s="2">
-        <v>45997</v>
+        <v>45996</v>
       </c>
       <c r="C27" s="2">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>5</v>
@@ -798,10 +798,10 @@
         <v>4</v>
       </c>
       <c r="B28" s="2">
-        <v>45998</v>
+        <v>45997</v>
       </c>
       <c r="C28" s="2">
-        <v>1061</v>
+        <v>4</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>5</v>
@@ -812,13 +812,13 @@
         <v>4</v>
       </c>
       <c r="B29" s="2">
-        <v>45998</v>
+        <v>45997</v>
       </c>
       <c r="C29" s="2">
-        <v>141</v>
+        <v>14</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -826,13 +826,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="2">
-        <v>46000</v>
+        <v>45998</v>
       </c>
       <c r="C30" s="2">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -843,10 +843,10 @@
         <v>45998</v>
       </c>
       <c r="C31" s="2">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -854,10 +854,10 @@
         <v>4</v>
       </c>
       <c r="B32" s="2">
-        <v>45998</v>
+        <v>45999</v>
       </c>
       <c r="C32" s="2">
-        <v>9</v>
+        <v>106</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>5</v>
@@ -868,13 +868,13 @@
         <v>4</v>
       </c>
       <c r="B33" s="2">
-        <v>46000</v>
+        <v>46001</v>
       </c>
       <c r="C33" s="2">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -902,7 +902,7 @@
         <v>21</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -958,7 +958,7 @@
         <v>50</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1000,7 +1000,7 @@
         <v>21</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1008,13 +1008,13 @@
         <v>4</v>
       </c>
       <c r="B43" s="2">
-        <v>45992</v>
+        <v>46001</v>
       </c>
       <c r="C43" s="2">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1022,10 +1022,10 @@
         <v>4</v>
       </c>
       <c r="B44" s="2">
-        <v>45995</v>
+        <v>45992</v>
       </c>
       <c r="C44" s="2">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>8</v>
@@ -1036,10 +1036,10 @@
         <v>4</v>
       </c>
       <c r="B45" s="2">
-        <v>45996</v>
+        <v>45993</v>
       </c>
       <c r="C45" s="2">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>5</v>
@@ -1050,10 +1050,10 @@
         <v>4</v>
       </c>
       <c r="B46" s="2">
-        <v>45996</v>
+        <v>45993</v>
       </c>
       <c r="C46" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>5</v>
@@ -1064,13 +1064,13 @@
         <v>4</v>
       </c>
       <c r="B47" s="2">
-        <v>45997</v>
+        <v>45994</v>
       </c>
       <c r="C47" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1078,13 +1078,13 @@
         <v>4</v>
       </c>
       <c r="B48" s="2">
-        <v>45998</v>
+        <v>45995</v>
       </c>
       <c r="C48" s="2">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1092,13 +1092,13 @@
         <v>4</v>
       </c>
       <c r="B49" s="2">
-        <v>45992</v>
+        <v>45996</v>
       </c>
       <c r="C49" s="2">
-        <v>14</v>
+        <v>409</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1106,10 +1106,10 @@
         <v>4</v>
       </c>
       <c r="B50" s="2">
-        <v>45993</v>
+        <v>45996</v>
       </c>
       <c r="C50" s="2">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>5</v>
@@ -1120,13 +1120,13 @@
         <v>4</v>
       </c>
       <c r="B51" s="2">
-        <v>45993</v>
+        <v>45997</v>
       </c>
       <c r="C51" s="2">
-        <v>2</v>
+        <v>248</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1134,13 +1134,13 @@
         <v>4</v>
       </c>
       <c r="B52" s="2">
-        <v>45994</v>
+        <v>45999</v>
       </c>
       <c r="C52" s="2">
-        <v>64</v>
+        <v>358</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1148,13 +1148,13 @@
         <v>4</v>
       </c>
       <c r="B53" s="2">
-        <v>45995</v>
+        <v>45999</v>
       </c>
       <c r="C53" s="2">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1162,13 +1162,13 @@
         <v>4</v>
       </c>
       <c r="B54" s="2">
-        <v>45996</v>
+        <v>46000</v>
       </c>
       <c r="C54" s="2">
-        <v>409</v>
+        <v>118</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1176,10 +1176,10 @@
         <v>4</v>
       </c>
       <c r="B55" s="2">
-        <v>45996</v>
+        <v>45992</v>
       </c>
       <c r="C55" s="2">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>5</v>
@@ -1190,13 +1190,13 @@
         <v>4</v>
       </c>
       <c r="B56" s="2">
-        <v>45997</v>
+        <v>45993</v>
       </c>
       <c r="C56" s="2">
-        <v>248</v>
+        <v>1</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1204,10 +1204,10 @@
         <v>4</v>
       </c>
       <c r="B57" s="2">
-        <v>45999</v>
+        <v>45994</v>
       </c>
       <c r="C57" s="2">
-        <v>358</v>
+        <v>1</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>5</v>
@@ -1218,10 +1218,10 @@
         <v>4</v>
       </c>
       <c r="B58" s="2">
-        <v>45999</v>
+        <v>45995</v>
       </c>
       <c r="C58" s="2">
-        <v>4</v>
+        <v>357</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>5</v>
@@ -1232,13 +1232,97 @@
         <v>4</v>
       </c>
       <c r="B59" s="2">
+        <v>45997</v>
+      </c>
+      <c r="C59" s="2">
+        <v>1</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" s="2">
+        <v>45997</v>
+      </c>
+      <c r="C60" s="2">
+        <v>10</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61" s="2">
+        <v>45998</v>
+      </c>
+      <c r="C61" s="2">
+        <v>1061</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" s="2">
+        <v>45998</v>
+      </c>
+      <c r="C62" s="2">
+        <v>141</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" s="2">
         <v>46000</v>
       </c>
-      <c r="C59" s="2">
-        <v>118</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>8</v>
+      <c r="C63" s="2">
+        <v>2</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64" s="2">
+        <v>46001</v>
+      </c>
+      <c r="C64" s="2">
+        <v>398</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65" s="2">
+        <v>46001</v>
+      </c>
+      <c r="C65" s="2">
+        <v>134</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/reports/Month to Date (Actual)_Visits.xlsx
+++ b/reports/Month to Date (Actual)_Visits.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="9">
   <si>
     <t>Resort</t>
   </si>
@@ -28,19 +28,19 @@
     <t>Location</t>
   </si>
   <si>
-    <t>Purgatory</t>
+    <t>Snowbowl</t>
   </si>
   <si>
-    <t>Purgatory Passes</t>
+    <t>Snowbowl Comp Tickets</t>
   </si>
   <si>
-    <t>Purgatory Tickets</t>
+    <t>Snowbowl Passes</t>
   </si>
   <si>
-    <t>Purgatory Coaster</t>
+    <t>Snowbowl Tickets</t>
   </si>
   <si>
-    <t>Purgatory Comp Tickets</t>
+    <t>Snowbowl Uplift Tickets</t>
   </si>
 </sst>
 </file>
@@ -403,16 +403,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D65"/>
+  <dimension ref="A1:D93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -434,10 +434,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2">
-        <v>45998</v>
+        <v>45992</v>
       </c>
       <c r="C2" s="2">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -448,13 +448,13 @@
         <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>45998</v>
+        <v>45994</v>
       </c>
       <c r="C3" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -462,10 +462,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>46000</v>
+        <v>45995</v>
       </c>
       <c r="C4" s="2">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>5</v>
@@ -476,13 +476,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>46001</v>
+        <v>45998</v>
       </c>
       <c r="C5" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -490,10 +490,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>46001</v>
+        <v>45998</v>
       </c>
       <c r="C6" s="2">
-        <v>1</v>
+        <v>166</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>5</v>
@@ -504,10 +504,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="2">
-        <v>45992</v>
+        <v>46000</v>
       </c>
       <c r="C7" s="2">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>6</v>
@@ -518,10 +518,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="2">
-        <v>45995</v>
+        <v>46001</v>
       </c>
       <c r="C8" s="2">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>6</v>
@@ -532,10 +532,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="2">
-        <v>45996</v>
+        <v>46001</v>
       </c>
       <c r="C9" s="2">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>5</v>
@@ -546,13 +546,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="2">
-        <v>45996</v>
+        <v>45992</v>
       </c>
       <c r="C10" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -560,13 +560,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="2">
-        <v>45997</v>
+        <v>45994</v>
       </c>
       <c r="C11" s="2">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -574,10 +574,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="2">
-        <v>45998</v>
+        <v>45994</v>
       </c>
       <c r="C12" s="2">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>5</v>
@@ -588,13 +588,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="2">
-        <v>45992</v>
+        <v>45997</v>
       </c>
       <c r="C13" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -602,13 +602,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="2">
-        <v>45993</v>
+        <v>45997</v>
       </c>
       <c r="C14" s="2">
-        <v>11</v>
+        <v>173</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -616,13 +616,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="2">
-        <v>45993</v>
+        <v>45999</v>
       </c>
       <c r="C15" s="2">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -630,13 +630,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="2">
-        <v>45994</v>
+        <v>46000</v>
       </c>
       <c r="C16" s="2">
-        <v>78</v>
+        <v>5</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -644,13 +644,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="2">
-        <v>45995</v>
+        <v>46000</v>
       </c>
       <c r="C17" s="2">
-        <v>1</v>
+        <v>913</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -658,13 +658,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="2">
-        <v>45996</v>
+        <v>45992</v>
       </c>
       <c r="C18" s="2">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -672,13 +672,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="2">
-        <v>45997</v>
+        <v>45993</v>
       </c>
       <c r="C19" s="2">
-        <v>115</v>
+        <v>8</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -686,13 +686,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="2">
-        <v>45999</v>
+        <v>45993</v>
       </c>
       <c r="C20" s="2">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -700,13 +700,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="2">
-        <v>45992</v>
+        <v>45994</v>
       </c>
       <c r="C21" s="2">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -714,10 +714,10 @@
         <v>4</v>
       </c>
       <c r="B22" s="2">
-        <v>45993</v>
+        <v>45995</v>
       </c>
       <c r="C22" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>6</v>
@@ -728,13 +728,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="2">
-        <v>45996</v>
+        <v>45997</v>
       </c>
       <c r="C23" s="2">
-        <v>104</v>
+        <v>235</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -742,10 +742,10 @@
         <v>4</v>
       </c>
       <c r="B24" s="2">
-        <v>45999</v>
+        <v>45997</v>
       </c>
       <c r="C24" s="2">
-        <v>115</v>
+        <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>6</v>
@@ -756,13 +756,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="2">
-        <v>46000</v>
+        <v>45998</v>
       </c>
       <c r="C25" s="2">
-        <v>322</v>
+        <v>93</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -770,13 +770,13 @@
         <v>4</v>
       </c>
       <c r="B26" s="2">
-        <v>45994</v>
+        <v>45998</v>
       </c>
       <c r="C26" s="2">
-        <v>1</v>
+        <v>1151</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -784,13 +784,13 @@
         <v>4</v>
       </c>
       <c r="B27" s="2">
-        <v>45996</v>
+        <v>45999</v>
       </c>
       <c r="C27" s="2">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -798,13 +798,13 @@
         <v>4</v>
       </c>
       <c r="B28" s="2">
-        <v>45997</v>
+        <v>46000</v>
       </c>
       <c r="C28" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -812,13 +812,13 @@
         <v>4</v>
       </c>
       <c r="B29" s="2">
-        <v>45997</v>
+        <v>46000</v>
       </c>
       <c r="C29" s="2">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -826,13 +826,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="2">
-        <v>45998</v>
+        <v>46001</v>
       </c>
       <c r="C30" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -840,13 +840,13 @@
         <v>4</v>
       </c>
       <c r="B31" s="2">
-        <v>45998</v>
+        <v>46001</v>
       </c>
       <c r="C31" s="2">
-        <v>34</v>
+        <v>725</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -854,13 +854,13 @@
         <v>4</v>
       </c>
       <c r="B32" s="2">
-        <v>45999</v>
+        <v>45992</v>
       </c>
       <c r="C32" s="2">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -868,13 +868,13 @@
         <v>4</v>
       </c>
       <c r="B33" s="2">
-        <v>46001</v>
+        <v>45993</v>
       </c>
       <c r="C33" s="2">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -882,13 +882,13 @@
         <v>4</v>
       </c>
       <c r="B34" s="2">
-        <v>45992</v>
+        <v>45993</v>
       </c>
       <c r="C34" s="2">
-        <v>59</v>
+        <v>738</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -896,10 +896,10 @@
         <v>4</v>
       </c>
       <c r="B35" s="2">
-        <v>45994</v>
+        <v>45993</v>
       </c>
       <c r="C35" s="2">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>8</v>
@@ -913,10 +913,10 @@
         <v>45994</v>
       </c>
       <c r="C36" s="2">
-        <v>279</v>
+        <v>10</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -924,13 +924,13 @@
         <v>4</v>
       </c>
       <c r="B37" s="2">
-        <v>45995</v>
+        <v>45996</v>
       </c>
       <c r="C37" s="2">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -941,10 +941,10 @@
         <v>45996</v>
       </c>
       <c r="C38" s="2">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -955,10 +955,10 @@
         <v>45997</v>
       </c>
       <c r="C39" s="2">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -969,10 +969,10 @@
         <v>45997</v>
       </c>
       <c r="C40" s="2">
-        <v>1156</v>
+        <v>1192</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -980,13 +980,13 @@
         <v>4</v>
       </c>
       <c r="B41" s="2">
-        <v>45998</v>
+        <v>45999</v>
       </c>
       <c r="C41" s="2">
-        <v>132</v>
+        <v>7</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -994,10 +994,10 @@
         <v>4</v>
       </c>
       <c r="B42" s="2">
-        <v>46000</v>
+        <v>45999</v>
       </c>
       <c r="C42" s="2">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>8</v>
@@ -1008,13 +1008,13 @@
         <v>4</v>
       </c>
       <c r="B43" s="2">
-        <v>46001</v>
+        <v>46000</v>
       </c>
       <c r="C43" s="2">
-        <v>101</v>
+        <v>570</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1022,13 +1022,13 @@
         <v>4</v>
       </c>
       <c r="B44" s="2">
-        <v>45992</v>
+        <v>46001</v>
       </c>
       <c r="C44" s="2">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1039,10 +1039,10 @@
         <v>45993</v>
       </c>
       <c r="C45" s="2">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1050,13 +1050,13 @@
         <v>4</v>
       </c>
       <c r="B46" s="2">
-        <v>45993</v>
+        <v>45994</v>
       </c>
       <c r="C46" s="2">
-        <v>2</v>
+        <v>593</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1064,10 +1064,10 @@
         <v>4</v>
       </c>
       <c r="B47" s="2">
-        <v>45994</v>
+        <v>45996</v>
       </c>
       <c r="C47" s="2">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>6</v>
@@ -1078,13 +1078,13 @@
         <v>4</v>
       </c>
       <c r="B48" s="2">
-        <v>45995</v>
+        <v>45996</v>
       </c>
       <c r="C48" s="2">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1095,10 +1095,10 @@
         <v>45996</v>
       </c>
       <c r="C49" s="2">
-        <v>409</v>
+        <v>1091</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1106,13 +1106,13 @@
         <v>4</v>
       </c>
       <c r="B50" s="2">
-        <v>45996</v>
+        <v>45999</v>
       </c>
       <c r="C50" s="2">
-        <v>2</v>
+        <v>1059</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1120,13 +1120,13 @@
         <v>4</v>
       </c>
       <c r="B51" s="2">
-        <v>45997</v>
+        <v>46000</v>
       </c>
       <c r="C51" s="2">
-        <v>248</v>
+        <v>85</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1134,13 +1134,13 @@
         <v>4</v>
       </c>
       <c r="B52" s="2">
-        <v>45999</v>
+        <v>45992</v>
       </c>
       <c r="C52" s="2">
-        <v>358</v>
+        <v>117</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1148,13 +1148,13 @@
         <v>4</v>
       </c>
       <c r="B53" s="2">
-        <v>45999</v>
+        <v>45993</v>
       </c>
       <c r="C53" s="2">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1162,10 +1162,10 @@
         <v>4</v>
       </c>
       <c r="B54" s="2">
-        <v>46000</v>
+        <v>45993</v>
       </c>
       <c r="C54" s="2">
-        <v>118</v>
+        <v>488</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>6</v>
@@ -1176,13 +1176,13 @@
         <v>4</v>
       </c>
       <c r="B55" s="2">
-        <v>45992</v>
+        <v>45994</v>
       </c>
       <c r="C55" s="2">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1190,13 +1190,13 @@
         <v>4</v>
       </c>
       <c r="B56" s="2">
-        <v>45993</v>
+        <v>45994</v>
       </c>
       <c r="C56" s="2">
-        <v>1</v>
+        <v>712</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1204,13 +1204,13 @@
         <v>4</v>
       </c>
       <c r="B57" s="2">
-        <v>45994</v>
+        <v>45995</v>
       </c>
       <c r="C57" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1221,10 +1221,10 @@
         <v>45995</v>
       </c>
       <c r="C58" s="2">
-        <v>357</v>
+        <v>64</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1232,13 +1232,13 @@
         <v>4</v>
       </c>
       <c r="B59" s="2">
-        <v>45997</v>
+        <v>45996</v>
       </c>
       <c r="C59" s="2">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1246,13 +1246,13 @@
         <v>4</v>
       </c>
       <c r="B60" s="2">
-        <v>45997</v>
+        <v>45996</v>
       </c>
       <c r="C60" s="2">
-        <v>10</v>
+        <v>1326</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1260,13 +1260,13 @@
         <v>4</v>
       </c>
       <c r="B61" s="2">
-        <v>45998</v>
+        <v>45997</v>
       </c>
       <c r="C61" s="2">
-        <v>1061</v>
+        <v>2</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1274,13 +1274,13 @@
         <v>4</v>
       </c>
       <c r="B62" s="2">
-        <v>45998</v>
+        <v>45997</v>
       </c>
       <c r="C62" s="2">
-        <v>141</v>
+        <v>1628</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1288,13 +1288,13 @@
         <v>4</v>
       </c>
       <c r="B63" s="2">
-        <v>46000</v>
+        <v>45998</v>
       </c>
       <c r="C63" s="2">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1302,13 +1302,13 @@
         <v>4</v>
       </c>
       <c r="B64" s="2">
-        <v>46001</v>
+        <v>45998</v>
       </c>
       <c r="C64" s="2">
-        <v>398</v>
+        <v>3</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1316,13 +1316,405 @@
         <v>4</v>
       </c>
       <c r="B65" s="2">
+        <v>45999</v>
+      </c>
+      <c r="C65" s="2">
+        <v>718</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" s="2">
+        <v>45999</v>
+      </c>
+      <c r="C66" s="2">
+        <v>1</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67" s="2">
+        <v>46000</v>
+      </c>
+      <c r="C67" s="2">
+        <v>7</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68" s="2">
         <v>46001</v>
       </c>
-      <c r="C65" s="2">
-        <v>134</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>6</v>
+      <c r="C68" s="2">
+        <v>10</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69" s="2">
+        <v>45992</v>
+      </c>
+      <c r="C69" s="2">
+        <v>11</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B70" s="2">
+        <v>45992</v>
+      </c>
+      <c r="C70" s="2">
+        <v>656</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B71" s="2">
+        <v>45992</v>
+      </c>
+      <c r="C71" s="2">
+        <v>797</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B72" s="2">
+        <v>45995</v>
+      </c>
+      <c r="C72" s="2">
+        <v>1</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B73" s="2">
+        <v>45995</v>
+      </c>
+      <c r="C73" s="2">
+        <v>803</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B74" s="2">
+        <v>45995</v>
+      </c>
+      <c r="C74" s="2">
+        <v>865</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B75" s="2">
+        <v>45996</v>
+      </c>
+      <c r="C75" s="2">
+        <v>93</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B76" s="2">
+        <v>45997</v>
+      </c>
+      <c r="C76" s="2">
+        <v>1</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B77" s="2">
+        <v>45998</v>
+      </c>
+      <c r="C77" s="2">
+        <v>1</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B78" s="2">
+        <v>45998</v>
+      </c>
+      <c r="C78" s="2">
+        <v>1401</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B79" s="2">
+        <v>45999</v>
+      </c>
+      <c r="C79" s="2">
+        <v>77</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B80" s="2">
+        <v>46001</v>
+      </c>
+      <c r="C80" s="2">
+        <v>8</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B81" s="2">
+        <v>46001</v>
+      </c>
+      <c r="C81" s="2">
+        <v>1</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B82" s="2">
+        <v>46001</v>
+      </c>
+      <c r="C82" s="2">
+        <v>1005</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B83" s="2">
+        <v>45992</v>
+      </c>
+      <c r="C83" s="2">
+        <v>7</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B84" s="2">
+        <v>45992</v>
+      </c>
+      <c r="C84" s="2">
+        <v>1</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B85" s="2">
+        <v>45994</v>
+      </c>
+      <c r="C85" s="2">
+        <v>2</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B86" s="2">
+        <v>45994</v>
+      </c>
+      <c r="C86" s="2">
+        <v>54</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B87" s="2">
+        <v>45995</v>
+      </c>
+      <c r="C87" s="2">
+        <v>1</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B88" s="2">
+        <v>45996</v>
+      </c>
+      <c r="C88" s="2">
+        <v>1</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B89" s="2">
+        <v>45997</v>
+      </c>
+      <c r="C89" s="2">
+        <v>64</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B90" s="2">
+        <v>45998</v>
+      </c>
+      <c r="C90" s="2">
+        <v>205</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B91" s="2">
+        <v>45999</v>
+      </c>
+      <c r="C91" s="2">
+        <v>9</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B92" s="2">
+        <v>46000</v>
+      </c>
+      <c r="C92" s="2">
+        <v>79</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B93" s="2">
+        <v>46001</v>
+      </c>
+      <c r="C93" s="2">
+        <v>87</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/reports/Month to Date (Actual)_Visits.xlsx
+++ b/reports/Month to Date (Actual)_Visits.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="9">
   <si>
     <t>Resort</t>
   </si>
@@ -28,19 +28,19 @@
     <t>Location</t>
   </si>
   <si>
-    <t>Purgatory</t>
+    <t>Snowbowl</t>
   </si>
   <si>
-    <t>Purgatory Passes</t>
+    <t>Snowbowl Comp Tickets</t>
   </si>
   <si>
-    <t>Purgatory Comp Tickets</t>
+    <t>Snowbowl Passes</t>
   </si>
   <si>
-    <t>Purgatory Tickets</t>
+    <t>Snowbowl Uplift Tickets</t>
   </si>
   <si>
-    <t>Purgatory Coaster</t>
+    <t>Snowbowl Tickets</t>
   </si>
 </sst>
 </file>
@@ -403,16 +403,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D70"/>
+  <dimension ref="A1:D102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -434,10 +434,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2">
-        <v>45998</v>
+        <v>45992</v>
       </c>
       <c r="C2" s="2">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -448,13 +448,13 @@
         <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>45998</v>
+        <v>45994</v>
       </c>
       <c r="C3" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -462,10 +462,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>46000</v>
+        <v>45995</v>
       </c>
       <c r="C4" s="2">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>5</v>
@@ -476,13 +476,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>46001</v>
+        <v>45998</v>
       </c>
       <c r="C5" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -490,10 +490,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>46001</v>
+        <v>45998</v>
       </c>
       <c r="C6" s="2">
-        <v>1</v>
+        <v>166</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>5</v>
@@ -504,10 +504,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="2">
-        <v>46002</v>
+        <v>46000</v>
       </c>
       <c r="C7" s="2">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>6</v>
@@ -518,13 +518,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="2">
-        <v>45992</v>
+        <v>46001</v>
       </c>
       <c r="C8" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -532,13 +532,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="2">
-        <v>45993</v>
+        <v>46001</v>
       </c>
       <c r="C9" s="2">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -546,10 +546,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="2">
-        <v>45996</v>
+        <v>46002</v>
       </c>
       <c r="C10" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>7</v>
@@ -560,13 +560,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="2">
-        <v>45999</v>
+        <v>45992</v>
       </c>
       <c r="C11" s="2">
-        <v>115</v>
+        <v>2</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -574,13 +574,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="2">
-        <v>46000</v>
+        <v>45994</v>
       </c>
       <c r="C12" s="2">
-        <v>322</v>
+        <v>4</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -588,10 +588,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="2">
-        <v>46002</v>
+        <v>45994</v>
       </c>
       <c r="C13" s="2">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>5</v>
@@ -602,13 +602,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="2">
-        <v>45992</v>
+        <v>45997</v>
       </c>
       <c r="C14" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -616,13 +616,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="2">
-        <v>45993</v>
+        <v>45997</v>
       </c>
       <c r="C15" s="2">
-        <v>11</v>
+        <v>173</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -630,13 +630,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="2">
-        <v>45993</v>
+        <v>45999</v>
       </c>
       <c r="C16" s="2">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -644,13 +644,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="2">
-        <v>45994</v>
+        <v>46000</v>
       </c>
       <c r="C17" s="2">
-        <v>78</v>
+        <v>5</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -658,13 +658,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="2">
-        <v>45995</v>
+        <v>46000</v>
       </c>
       <c r="C18" s="2">
-        <v>1</v>
+        <v>913</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -672,10 +672,10 @@
         <v>4</v>
       </c>
       <c r="B19" s="2">
-        <v>45996</v>
+        <v>46002</v>
       </c>
       <c r="C19" s="2">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>6</v>
@@ -686,13 +686,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="2">
-        <v>45997</v>
+        <v>45992</v>
       </c>
       <c r="C20" s="2">
-        <v>115</v>
+        <v>7</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -700,10 +700,10 @@
         <v>4</v>
       </c>
       <c r="B21" s="2">
-        <v>45999</v>
+        <v>45992</v>
       </c>
       <c r="C21" s="2">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>6</v>
@@ -714,13 +714,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="2">
-        <v>45992</v>
+        <v>45994</v>
       </c>
       <c r="C22" s="2">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -728,13 +728,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="2">
-        <v>45995</v>
+        <v>45994</v>
       </c>
       <c r="C23" s="2">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -742,13 +742,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="2">
-        <v>45996</v>
+        <v>45995</v>
       </c>
       <c r="C24" s="2">
         <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -762,7 +762,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -773,10 +773,10 @@
         <v>45997</v>
       </c>
       <c r="C26" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -787,10 +787,10 @@
         <v>45998</v>
       </c>
       <c r="C27" s="2">
-        <v>15</v>
+        <v>205</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -798,13 +798,13 @@
         <v>4</v>
       </c>
       <c r="B28" s="2">
-        <v>45994</v>
+        <v>45999</v>
       </c>
       <c r="C28" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -812,13 +812,13 @@
         <v>4</v>
       </c>
       <c r="B29" s="2">
-        <v>45996</v>
+        <v>46000</v>
       </c>
       <c r="C29" s="2">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -826,13 +826,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="2">
-        <v>45997</v>
+        <v>46001</v>
       </c>
       <c r="C30" s="2">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -840,13 +840,13 @@
         <v>4</v>
       </c>
       <c r="B31" s="2">
-        <v>45997</v>
+        <v>46002</v>
       </c>
       <c r="C31" s="2">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -854,13 +854,13 @@
         <v>4</v>
       </c>
       <c r="B32" s="2">
-        <v>45998</v>
+        <v>46002</v>
       </c>
       <c r="C32" s="2">
-        <v>85</v>
+        <v>741</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -868,10 +868,10 @@
         <v>4</v>
       </c>
       <c r="B33" s="2">
-        <v>45998</v>
+        <v>45993</v>
       </c>
       <c r="C33" s="2">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>6</v>
@@ -882,13 +882,13 @@
         <v>4</v>
       </c>
       <c r="B34" s="2">
-        <v>45999</v>
+        <v>45994</v>
       </c>
       <c r="C34" s="2">
-        <v>106</v>
+        <v>593</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -896,10 +896,10 @@
         <v>4</v>
       </c>
       <c r="B35" s="2">
-        <v>46001</v>
+        <v>45996</v>
       </c>
       <c r="C35" s="2">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>6</v>
@@ -910,13 +910,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="2">
-        <v>46002</v>
+        <v>45996</v>
       </c>
       <c r="C36" s="2">
-        <v>93</v>
+        <v>2</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -924,13 +924,13 @@
         <v>4</v>
       </c>
       <c r="B37" s="2">
-        <v>45992</v>
+        <v>45996</v>
       </c>
       <c r="C37" s="2">
-        <v>59</v>
+        <v>1091</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -938,13 +938,13 @@
         <v>4</v>
       </c>
       <c r="B38" s="2">
-        <v>45994</v>
+        <v>45999</v>
       </c>
       <c r="C38" s="2">
-        <v>21</v>
+        <v>1058</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -952,10 +952,10 @@
         <v>4</v>
       </c>
       <c r="B39" s="2">
-        <v>45994</v>
+        <v>46000</v>
       </c>
       <c r="C39" s="2">
-        <v>279</v>
+        <v>85</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>5</v>
@@ -966,13 +966,13 @@
         <v>4</v>
       </c>
       <c r="B40" s="2">
-        <v>45995</v>
+        <v>46002</v>
       </c>
       <c r="C40" s="2">
-        <v>69</v>
+        <v>4</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -980,13 +980,13 @@
         <v>4</v>
       </c>
       <c r="B41" s="2">
-        <v>45996</v>
+        <v>46002</v>
       </c>
       <c r="C41" s="2">
-        <v>1</v>
+        <v>1083</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -994,10 +994,10 @@
         <v>4</v>
       </c>
       <c r="B42" s="2">
-        <v>45997</v>
+        <v>45992</v>
       </c>
       <c r="C42" s="2">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>6</v>
@@ -1008,13 +1008,13 @@
         <v>4</v>
       </c>
       <c r="B43" s="2">
-        <v>45997</v>
+        <v>45993</v>
       </c>
       <c r="C43" s="2">
-        <v>1156</v>
+        <v>8</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1022,10 +1022,10 @@
         <v>4</v>
       </c>
       <c r="B44" s="2">
-        <v>45998</v>
+        <v>45993</v>
       </c>
       <c r="C44" s="2">
-        <v>132</v>
+        <v>67</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>5</v>
@@ -1036,13 +1036,13 @@
         <v>4</v>
       </c>
       <c r="B45" s="2">
-        <v>46000</v>
+        <v>45994</v>
       </c>
       <c r="C45" s="2">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1050,13 +1050,13 @@
         <v>4</v>
       </c>
       <c r="B46" s="2">
-        <v>46001</v>
+        <v>45995</v>
       </c>
       <c r="C46" s="2">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1064,10 +1064,10 @@
         <v>4</v>
       </c>
       <c r="B47" s="2">
-        <v>46002</v>
+        <v>45997</v>
       </c>
       <c r="C47" s="2">
-        <v>174</v>
+        <v>235</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>7</v>
@@ -1078,13 +1078,13 @@
         <v>4</v>
       </c>
       <c r="B48" s="2">
-        <v>45992</v>
+        <v>45997</v>
       </c>
       <c r="C48" s="2">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1092,13 +1092,13 @@
         <v>4</v>
       </c>
       <c r="B49" s="2">
-        <v>45993</v>
+        <v>45998</v>
       </c>
       <c r="C49" s="2">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1106,13 +1106,13 @@
         <v>4</v>
       </c>
       <c r="B50" s="2">
-        <v>45994</v>
+        <v>45998</v>
       </c>
       <c r="C50" s="2">
-        <v>1</v>
+        <v>1151</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1120,13 +1120,13 @@
         <v>4</v>
       </c>
       <c r="B51" s="2">
-        <v>45995</v>
+        <v>45999</v>
       </c>
       <c r="C51" s="2">
-        <v>357</v>
+        <v>2</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1134,13 +1134,13 @@
         <v>4</v>
       </c>
       <c r="B52" s="2">
-        <v>45997</v>
+        <v>46000</v>
       </c>
       <c r="C52" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1148,13 +1148,13 @@
         <v>4</v>
       </c>
       <c r="B53" s="2">
-        <v>45997</v>
+        <v>46000</v>
       </c>
       <c r="C53" s="2">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1162,13 +1162,13 @@
         <v>4</v>
       </c>
       <c r="B54" s="2">
-        <v>45998</v>
+        <v>46001</v>
       </c>
       <c r="C54" s="2">
-        <v>1061</v>
+        <v>97</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1176,13 +1176,13 @@
         <v>4</v>
       </c>
       <c r="B55" s="2">
-        <v>45998</v>
+        <v>46001</v>
       </c>
       <c r="C55" s="2">
-        <v>141</v>
+        <v>725</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1190,13 +1190,13 @@
         <v>4</v>
       </c>
       <c r="B56" s="2">
-        <v>46000</v>
+        <v>45992</v>
       </c>
       <c r="C56" s="2">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1204,13 +1204,13 @@
         <v>4</v>
       </c>
       <c r="B57" s="2">
-        <v>46001</v>
+        <v>45993</v>
       </c>
       <c r="C57" s="2">
-        <v>398</v>
+        <v>3</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1218,13 +1218,13 @@
         <v>4</v>
       </c>
       <c r="B58" s="2">
-        <v>46001</v>
+        <v>45993</v>
       </c>
       <c r="C58" s="2">
-        <v>134</v>
+        <v>738</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1232,13 +1232,13 @@
         <v>4</v>
       </c>
       <c r="B59" s="2">
-        <v>45992</v>
+        <v>45993</v>
       </c>
       <c r="C59" s="2">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1246,13 +1246,13 @@
         <v>4</v>
       </c>
       <c r="B60" s="2">
-        <v>45993</v>
+        <v>45994</v>
       </c>
       <c r="C60" s="2">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1260,13 +1260,13 @@
         <v>4</v>
       </c>
       <c r="B61" s="2">
-        <v>45993</v>
+        <v>45996</v>
       </c>
       <c r="C61" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1274,10 +1274,10 @@
         <v>4</v>
       </c>
       <c r="B62" s="2">
-        <v>45994</v>
+        <v>45996</v>
       </c>
       <c r="C62" s="2">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>7</v>
@@ -1288,10 +1288,10 @@
         <v>4</v>
       </c>
       <c r="B63" s="2">
-        <v>45995</v>
+        <v>45997</v>
       </c>
       <c r="C63" s="2">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>6</v>
@@ -1302,13 +1302,13 @@
         <v>4</v>
       </c>
       <c r="B64" s="2">
-        <v>45996</v>
+        <v>45997</v>
       </c>
       <c r="C64" s="2">
-        <v>409</v>
+        <v>1192</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1316,13 +1316,13 @@
         <v>4</v>
       </c>
       <c r="B65" s="2">
-        <v>45996</v>
+        <v>45999</v>
       </c>
       <c r="C65" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1330,10 +1330,10 @@
         <v>4</v>
       </c>
       <c r="B66" s="2">
-        <v>45997</v>
+        <v>45999</v>
       </c>
       <c r="C66" s="2">
-        <v>248</v>
+        <v>97</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>7</v>
@@ -1344,13 +1344,13 @@
         <v>4</v>
       </c>
       <c r="B67" s="2">
-        <v>45999</v>
+        <v>46000</v>
       </c>
       <c r="C67" s="2">
-        <v>358</v>
+        <v>570</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1358,13 +1358,13 @@
         <v>4</v>
       </c>
       <c r="B68" s="2">
-        <v>45999</v>
+        <v>46001</v>
       </c>
       <c r="C68" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1372,10 +1372,10 @@
         <v>4</v>
       </c>
       <c r="B69" s="2">
-        <v>46000</v>
+        <v>45992</v>
       </c>
       <c r="C69" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>7</v>
@@ -1386,12 +1386,460 @@
         <v>4</v>
       </c>
       <c r="B70" s="2">
+        <v>45993</v>
+      </c>
+      <c r="C70" s="2">
+        <v>66</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B71" s="2">
+        <v>45993</v>
+      </c>
+      <c r="C71" s="2">
+        <v>488</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B72" s="2">
+        <v>45994</v>
+      </c>
+      <c r="C72" s="2">
+        <v>3</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B73" s="2">
+        <v>45994</v>
+      </c>
+      <c r="C73" s="2">
+        <v>712</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B74" s="2">
+        <v>45995</v>
+      </c>
+      <c r="C74" s="2">
+        <v>9</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B75" s="2">
+        <v>45995</v>
+      </c>
+      <c r="C75" s="2">
+        <v>64</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B76" s="2">
+        <v>45996</v>
+      </c>
+      <c r="C76" s="2">
+        <v>94</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B77" s="2">
+        <v>45996</v>
+      </c>
+      <c r="C77" s="2">
+        <v>1326</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B78" s="2">
+        <v>45997</v>
+      </c>
+      <c r="C78" s="2">
+        <v>2</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B79" s="2">
+        <v>45997</v>
+      </c>
+      <c r="C79" s="2">
+        <v>1628</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B80" s="2">
+        <v>45998</v>
+      </c>
+      <c r="C80" s="2">
+        <v>21</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B81" s="2">
+        <v>45998</v>
+      </c>
+      <c r="C81" s="2">
+        <v>3</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B82" s="2">
+        <v>45999</v>
+      </c>
+      <c r="C82" s="2">
+        <v>718</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B83" s="2">
+        <v>45999</v>
+      </c>
+      <c r="C83" s="2">
+        <v>1</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B84" s="2">
+        <v>46000</v>
+      </c>
+      <c r="C84" s="2">
+        <v>7</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B85" s="2">
+        <v>46001</v>
+      </c>
+      <c r="C85" s="2">
+        <v>10</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B86" s="2">
+        <v>45992</v>
+      </c>
+      <c r="C86" s="2">
+        <v>11</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B87" s="2">
+        <v>45992</v>
+      </c>
+      <c r="C87" s="2">
+        <v>656</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B88" s="2">
+        <v>45992</v>
+      </c>
+      <c r="C88" s="2">
+        <v>797</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B89" s="2">
+        <v>45995</v>
+      </c>
+      <c r="C89" s="2">
+        <v>1</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B90" s="2">
+        <v>45995</v>
+      </c>
+      <c r="C90" s="2">
+        <v>803</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B91" s="2">
+        <v>45995</v>
+      </c>
+      <c r="C91" s="2">
+        <v>865</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B92" s="2">
+        <v>45996</v>
+      </c>
+      <c r="C92" s="2">
+        <v>93</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B93" s="2">
+        <v>45997</v>
+      </c>
+      <c r="C93" s="2">
+        <v>1</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B94" s="2">
+        <v>45998</v>
+      </c>
+      <c r="C94" s="2">
+        <v>1</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B95" s="2">
+        <v>45998</v>
+      </c>
+      <c r="C95" s="2">
+        <v>1401</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B96" s="2">
+        <v>45999</v>
+      </c>
+      <c r="C96" s="2">
+        <v>77</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B97" s="2">
+        <v>46001</v>
+      </c>
+      <c r="C97" s="2">
+        <v>8</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B98" s="2">
+        <v>46001</v>
+      </c>
+      <c r="C98" s="2">
+        <v>1</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B99" s="2">
+        <v>46001</v>
+      </c>
+      <c r="C99" s="2">
+        <v>1005</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B100" s="2">
         <v>46002</v>
       </c>
-      <c r="C70" s="2">
-        <v>321</v>
-      </c>
-      <c r="D70" s="2" t="s">
+      <c r="C100" s="2">
+        <v>4</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B101" s="2">
+        <v>46002</v>
+      </c>
+      <c r="C101" s="2">
+        <v>1</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B102" s="2">
+        <v>46002</v>
+      </c>
+      <c r="C102" s="2">
+        <v>91</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>5</v>
       </c>
     </row>

--- a/reports/Month to Date (Actual)_Visits.xlsx
+++ b/reports/Month to Date (Actual)_Visits.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="9">
   <si>
     <t>Resort</t>
   </si>
@@ -28,19 +28,19 @@
     <t>Location</t>
   </si>
   <si>
-    <t>Snowbowl</t>
+    <t>Purgatory</t>
   </si>
   <si>
-    <t>Snowbowl Comp Tickets</t>
+    <t>Purgatory Passes</t>
   </si>
   <si>
-    <t>Snowbowl Passes</t>
+    <t>Purgatory Comp Tickets</t>
   </si>
   <si>
-    <t>Snowbowl Uplift Tickets</t>
+    <t>Purgatory Coaster</t>
   </si>
   <si>
-    <t>Snowbowl Tickets</t>
+    <t>Purgatory Tickets</t>
   </si>
 </sst>
 </file>
@@ -403,16 +403,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D102"/>
+  <dimension ref="A1:D97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -434,10 +434,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2">
-        <v>45992</v>
+        <v>45998</v>
       </c>
       <c r="C2" s="2">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -448,13 +448,13 @@
         <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>45994</v>
+        <v>45998</v>
       </c>
       <c r="C3" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -462,10 +462,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>45995</v>
+        <v>46000</v>
       </c>
       <c r="C4" s="2">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>5</v>
@@ -476,13 +476,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>45998</v>
+        <v>46001</v>
       </c>
       <c r="C5" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -490,10 +490,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>45998</v>
+        <v>46001</v>
       </c>
       <c r="C6" s="2">
-        <v>166</v>
+        <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>5</v>
@@ -504,10 +504,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="2">
-        <v>46000</v>
+        <v>46002</v>
       </c>
       <c r="C7" s="2">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>6</v>
@@ -518,13 +518,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="2">
-        <v>46001</v>
+        <v>46003</v>
       </c>
       <c r="C8" s="2">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -532,10 +532,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="2">
-        <v>46001</v>
+        <v>46003</v>
       </c>
       <c r="C9" s="2">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>5</v>
@@ -546,13 +546,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="2">
-        <v>46002</v>
+        <v>46004</v>
       </c>
       <c r="C10" s="2">
-        <v>82</v>
+        <v>3</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -560,13 +560,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="2">
-        <v>45992</v>
+        <v>46005</v>
       </c>
       <c r="C11" s="2">
         <v>2</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -574,13 +574,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="2">
-        <v>45994</v>
+        <v>46005</v>
       </c>
       <c r="C12" s="2">
-        <v>4</v>
+        <v>124</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -588,13 +588,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="2">
-        <v>45994</v>
+        <v>46005</v>
       </c>
       <c r="C13" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -602,10 +602,10 @@
         <v>4</v>
       </c>
       <c r="B14" s="2">
-        <v>45997</v>
+        <v>45992</v>
       </c>
       <c r="C14" s="2">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>6</v>
@@ -616,10 +616,10 @@
         <v>4</v>
       </c>
       <c r="B15" s="2">
-        <v>45997</v>
+        <v>45993</v>
       </c>
       <c r="C15" s="2">
-        <v>173</v>
+        <v>55</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>5</v>
@@ -630,13 +630,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="2">
-        <v>45999</v>
+        <v>45993</v>
       </c>
       <c r="C16" s="2">
-        <v>66</v>
+        <v>2</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -644,13 +644,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="2">
-        <v>46000</v>
+        <v>45994</v>
       </c>
       <c r="C17" s="2">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -658,13 +658,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="2">
-        <v>46000</v>
+        <v>45995</v>
       </c>
       <c r="C18" s="2">
-        <v>913</v>
+        <v>29</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -672,13 +672,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="2">
-        <v>46002</v>
+        <v>45996</v>
       </c>
       <c r="C19" s="2">
-        <v>79</v>
+        <v>411</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -686,13 +686,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="2">
-        <v>45992</v>
+        <v>45996</v>
       </c>
       <c r="C20" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -700,13 +700,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="2">
-        <v>45992</v>
+        <v>45997</v>
       </c>
       <c r="C21" s="2">
-        <v>1</v>
+        <v>247</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -714,13 +714,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="2">
-        <v>45994</v>
+        <v>45999</v>
       </c>
       <c r="C22" s="2">
-        <v>2</v>
+        <v>358</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -728,13 +728,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="2">
-        <v>45994</v>
+        <v>45999</v>
       </c>
       <c r="C23" s="2">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -742,13 +742,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="2">
-        <v>45995</v>
+        <v>46000</v>
       </c>
       <c r="C24" s="2">
-        <v>1</v>
+        <v>118</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -756,13 +756,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="2">
-        <v>45996</v>
+        <v>46002</v>
       </c>
       <c r="C25" s="2">
-        <v>1</v>
+        <v>321</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -770,13 +770,13 @@
         <v>4</v>
       </c>
       <c r="B26" s="2">
-        <v>45997</v>
+        <v>46003</v>
       </c>
       <c r="C26" s="2">
-        <v>64</v>
+        <v>213</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -784,13 +784,13 @@
         <v>4</v>
       </c>
       <c r="B27" s="2">
-        <v>45998</v>
+        <v>46004</v>
       </c>
       <c r="C27" s="2">
-        <v>205</v>
+        <v>6</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -798,13 +798,13 @@
         <v>4</v>
       </c>
       <c r="B28" s="2">
-        <v>45999</v>
+        <v>45992</v>
       </c>
       <c r="C28" s="2">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -812,13 +812,13 @@
         <v>4</v>
       </c>
       <c r="B29" s="2">
-        <v>46000</v>
+        <v>45995</v>
       </c>
       <c r="C29" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -826,13 +826,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="2">
-        <v>46001</v>
+        <v>45996</v>
       </c>
       <c r="C30" s="2">
-        <v>87</v>
+        <v>1</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -840,13 +840,13 @@
         <v>4</v>
       </c>
       <c r="B31" s="2">
-        <v>46002</v>
+        <v>45996</v>
       </c>
       <c r="C31" s="2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -854,13 +854,13 @@
         <v>4</v>
       </c>
       <c r="B32" s="2">
-        <v>46002</v>
+        <v>45997</v>
       </c>
       <c r="C32" s="2">
-        <v>741</v>
+        <v>62</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -868,13 +868,13 @@
         <v>4</v>
       </c>
       <c r="B33" s="2">
-        <v>45993</v>
+        <v>45998</v>
       </c>
       <c r="C33" s="2">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -882,13 +882,13 @@
         <v>4</v>
       </c>
       <c r="B34" s="2">
-        <v>45994</v>
+        <v>46003</v>
       </c>
       <c r="C34" s="2">
-        <v>593</v>
+        <v>1</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -896,13 +896,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="2">
-        <v>45996</v>
+        <v>46004</v>
       </c>
       <c r="C35" s="2">
-        <v>16</v>
+        <v>1130</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -910,13 +910,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="2">
-        <v>45996</v>
+        <v>46004</v>
       </c>
       <c r="C36" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -924,13 +924,13 @@
         <v>4</v>
       </c>
       <c r="B37" s="2">
-        <v>45996</v>
+        <v>45992</v>
       </c>
       <c r="C37" s="2">
-        <v>1091</v>
+        <v>200</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -938,13 +938,13 @@
         <v>4</v>
       </c>
       <c r="B38" s="2">
-        <v>45999</v>
+        <v>45993</v>
       </c>
       <c r="C38" s="2">
-        <v>1058</v>
+        <v>1</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -952,10 +952,10 @@
         <v>4</v>
       </c>
       <c r="B39" s="2">
-        <v>46000</v>
+        <v>45994</v>
       </c>
       <c r="C39" s="2">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>5</v>
@@ -966,13 +966,13 @@
         <v>4</v>
       </c>
       <c r="B40" s="2">
-        <v>46002</v>
+        <v>45995</v>
       </c>
       <c r="C40" s="2">
-        <v>4</v>
+        <v>357</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -980,13 +980,13 @@
         <v>4</v>
       </c>
       <c r="B41" s="2">
-        <v>46002</v>
+        <v>45997</v>
       </c>
       <c r="C41" s="2">
-        <v>1083</v>
+        <v>1</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -994,13 +994,13 @@
         <v>4</v>
       </c>
       <c r="B42" s="2">
-        <v>45992</v>
+        <v>45997</v>
       </c>
       <c r="C42" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1008,13 +1008,13 @@
         <v>4</v>
       </c>
       <c r="B43" s="2">
-        <v>45993</v>
+        <v>45998</v>
       </c>
       <c r="C43" s="2">
-        <v>8</v>
+        <v>1061</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1022,13 +1022,13 @@
         <v>4</v>
       </c>
       <c r="B44" s="2">
-        <v>45993</v>
+        <v>45998</v>
       </c>
       <c r="C44" s="2">
-        <v>67</v>
+        <v>141</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1036,13 +1036,13 @@
         <v>4</v>
       </c>
       <c r="B45" s="2">
-        <v>45994</v>
+        <v>46000</v>
       </c>
       <c r="C45" s="2">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1050,13 +1050,13 @@
         <v>4</v>
       </c>
       <c r="B46" s="2">
-        <v>45995</v>
+        <v>46001</v>
       </c>
       <c r="C46" s="2">
-        <v>67</v>
+        <v>398</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1064,13 +1064,13 @@
         <v>4</v>
       </c>
       <c r="B47" s="2">
-        <v>45997</v>
+        <v>46001</v>
       </c>
       <c r="C47" s="2">
-        <v>235</v>
+        <v>134</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1078,13 +1078,13 @@
         <v>4</v>
       </c>
       <c r="B48" s="2">
-        <v>45997</v>
+        <v>46003</v>
       </c>
       <c r="C48" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1092,13 +1092,13 @@
         <v>4</v>
       </c>
       <c r="B49" s="2">
-        <v>45998</v>
+        <v>46004</v>
       </c>
       <c r="C49" s="2">
-        <v>93</v>
+        <v>1</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1106,13 +1106,13 @@
         <v>4</v>
       </c>
       <c r="B50" s="2">
-        <v>45998</v>
+        <v>46004</v>
       </c>
       <c r="C50" s="2">
-        <v>1151</v>
+        <v>447</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1120,13 +1120,13 @@
         <v>4</v>
       </c>
       <c r="B51" s="2">
-        <v>45999</v>
+        <v>45992</v>
       </c>
       <c r="C51" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1134,13 +1134,13 @@
         <v>4</v>
       </c>
       <c r="B52" s="2">
-        <v>46000</v>
+        <v>45993</v>
       </c>
       <c r="C52" s="2">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1148,13 +1148,13 @@
         <v>4</v>
       </c>
       <c r="B53" s="2">
-        <v>46000</v>
+        <v>45996</v>
       </c>
       <c r="C53" s="2">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1162,13 +1162,13 @@
         <v>4</v>
       </c>
       <c r="B54" s="2">
-        <v>46001</v>
+        <v>45999</v>
       </c>
       <c r="C54" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1176,13 +1176,13 @@
         <v>4</v>
       </c>
       <c r="B55" s="2">
-        <v>46001</v>
+        <v>46000</v>
       </c>
       <c r="C55" s="2">
-        <v>725</v>
+        <v>322</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1190,13 +1190,13 @@
         <v>4</v>
       </c>
       <c r="B56" s="2">
-        <v>45992</v>
+        <v>46002</v>
       </c>
       <c r="C56" s="2">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1204,13 +1204,13 @@
         <v>4</v>
       </c>
       <c r="B57" s="2">
-        <v>45993</v>
+        <v>46003</v>
       </c>
       <c r="C57" s="2">
-        <v>3</v>
+        <v>538</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1218,13 +1218,13 @@
         <v>4</v>
       </c>
       <c r="B58" s="2">
-        <v>45993</v>
+        <v>46004</v>
       </c>
       <c r="C58" s="2">
-        <v>738</v>
+        <v>132</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1232,13 +1232,13 @@
         <v>4</v>
       </c>
       <c r="B59" s="2">
-        <v>45993</v>
+        <v>46005</v>
       </c>
       <c r="C59" s="2">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1246,13 +1246,13 @@
         <v>4</v>
       </c>
       <c r="B60" s="2">
-        <v>45994</v>
+        <v>46005</v>
       </c>
       <c r="C60" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1260,13 +1260,13 @@
         <v>4</v>
       </c>
       <c r="B61" s="2">
-        <v>45996</v>
+        <v>45992</v>
       </c>
       <c r="C61" s="2">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1274,13 +1274,13 @@
         <v>4</v>
       </c>
       <c r="B62" s="2">
-        <v>45996</v>
+        <v>45994</v>
       </c>
       <c r="C62" s="2">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1288,13 +1288,13 @@
         <v>4</v>
       </c>
       <c r="B63" s="2">
-        <v>45997</v>
+        <v>45994</v>
       </c>
       <c r="C63" s="2">
-        <v>13</v>
+        <v>279</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1302,13 +1302,13 @@
         <v>4</v>
       </c>
       <c r="B64" s="2">
-        <v>45997</v>
+        <v>45995</v>
       </c>
       <c r="C64" s="2">
-        <v>1192</v>
+        <v>69</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1316,13 +1316,13 @@
         <v>4</v>
       </c>
       <c r="B65" s="2">
-        <v>45999</v>
+        <v>45996</v>
       </c>
       <c r="C65" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1330,13 +1330,13 @@
         <v>4</v>
       </c>
       <c r="B66" s="2">
-        <v>45999</v>
+        <v>45997</v>
       </c>
       <c r="C66" s="2">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1344,13 +1344,13 @@
         <v>4</v>
       </c>
       <c r="B67" s="2">
-        <v>46000</v>
+        <v>45997</v>
       </c>
       <c r="C67" s="2">
-        <v>570</v>
+        <v>1156</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1358,13 +1358,13 @@
         <v>4</v>
       </c>
       <c r="B68" s="2">
-        <v>46001</v>
+        <v>45998</v>
       </c>
       <c r="C68" s="2">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1372,13 +1372,13 @@
         <v>4</v>
       </c>
       <c r="B69" s="2">
-        <v>45992</v>
+        <v>46000</v>
       </c>
       <c r="C69" s="2">
-        <v>117</v>
+        <v>21</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1386,13 +1386,13 @@
         <v>4</v>
       </c>
       <c r="B70" s="2">
-        <v>45993</v>
+        <v>46001</v>
       </c>
       <c r="C70" s="2">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1400,13 +1400,13 @@
         <v>4</v>
       </c>
       <c r="B71" s="2">
-        <v>45993</v>
+        <v>46002</v>
       </c>
       <c r="C71" s="2">
-        <v>488</v>
+        <v>174</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1414,10 +1414,10 @@
         <v>4</v>
       </c>
       <c r="B72" s="2">
-        <v>45994</v>
+        <v>46003</v>
       </c>
       <c r="C72" s="2">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>6</v>
@@ -1428,13 +1428,13 @@
         <v>4</v>
       </c>
       <c r="B73" s="2">
-        <v>45994</v>
+        <v>46004</v>
       </c>
       <c r="C73" s="2">
-        <v>712</v>
+        <v>248</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1442,13 +1442,13 @@
         <v>4</v>
       </c>
       <c r="B74" s="2">
-        <v>45995</v>
+        <v>46005</v>
       </c>
       <c r="C74" s="2">
-        <v>9</v>
+        <v>332</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1456,13 +1456,13 @@
         <v>4</v>
       </c>
       <c r="B75" s="2">
-        <v>45995</v>
+        <v>45992</v>
       </c>
       <c r="C75" s="2">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1470,10 +1470,10 @@
         <v>4</v>
       </c>
       <c r="B76" s="2">
-        <v>45996</v>
+        <v>45993</v>
       </c>
       <c r="C76" s="2">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>6</v>
@@ -1484,13 +1484,13 @@
         <v>4</v>
       </c>
       <c r="B77" s="2">
-        <v>45996</v>
+        <v>45993</v>
       </c>
       <c r="C77" s="2">
-        <v>1326</v>
+        <v>183</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1498,13 +1498,13 @@
         <v>4</v>
       </c>
       <c r="B78" s="2">
-        <v>45997</v>
+        <v>45994</v>
       </c>
       <c r="C78" s="2">
-        <v>2</v>
+        <v>78</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1512,13 +1512,13 @@
         <v>4</v>
       </c>
       <c r="B79" s="2">
-        <v>45997</v>
+        <v>45995</v>
       </c>
       <c r="C79" s="2">
-        <v>1628</v>
+        <v>1</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1526,10 +1526,10 @@
         <v>4</v>
       </c>
       <c r="B80" s="2">
-        <v>45998</v>
+        <v>45996</v>
       </c>
       <c r="C80" s="2">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>6</v>
@@ -1540,13 +1540,13 @@
         <v>4</v>
       </c>
       <c r="B81" s="2">
-        <v>45998</v>
+        <v>45997</v>
       </c>
       <c r="C81" s="2">
-        <v>3</v>
+        <v>115</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1557,7 +1557,7 @@
         <v>45999</v>
       </c>
       <c r="C82" s="2">
-        <v>718</v>
+        <v>19</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>6</v>
@@ -1568,13 +1568,13 @@
         <v>4</v>
       </c>
       <c r="B83" s="2">
-        <v>45999</v>
+        <v>46005</v>
       </c>
       <c r="C83" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1582,13 +1582,13 @@
         <v>4</v>
       </c>
       <c r="B84" s="2">
-        <v>46000</v>
+        <v>46005</v>
       </c>
       <c r="C84" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1596,13 +1596,13 @@
         <v>4</v>
       </c>
       <c r="B85" s="2">
-        <v>46001</v>
+        <v>45994</v>
       </c>
       <c r="C85" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1610,13 +1610,13 @@
         <v>4</v>
       </c>
       <c r="B86" s="2">
-        <v>45992</v>
+        <v>45996</v>
       </c>
       <c r="C86" s="2">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1624,13 +1624,13 @@
         <v>4</v>
       </c>
       <c r="B87" s="2">
-        <v>45992</v>
+        <v>45997</v>
       </c>
       <c r="C87" s="2">
-        <v>656</v>
+        <v>4</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1638,13 +1638,13 @@
         <v>4</v>
       </c>
       <c r="B88" s="2">
-        <v>45992</v>
+        <v>45997</v>
       </c>
       <c r="C88" s="2">
-        <v>797</v>
+        <v>14</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1652,13 +1652,13 @@
         <v>4</v>
       </c>
       <c r="B89" s="2">
-        <v>45995</v>
+        <v>45998</v>
       </c>
       <c r="C89" s="2">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1666,10 +1666,10 @@
         <v>4</v>
       </c>
       <c r="B90" s="2">
-        <v>45995</v>
+        <v>45998</v>
       </c>
       <c r="C90" s="2">
-        <v>803</v>
+        <v>34</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>6</v>
@@ -1680,13 +1680,13 @@
         <v>4</v>
       </c>
       <c r="B91" s="2">
-        <v>45995</v>
+        <v>45999</v>
       </c>
       <c r="C91" s="2">
-        <v>865</v>
+        <v>106</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1694,13 +1694,13 @@
         <v>4</v>
       </c>
       <c r="B92" s="2">
-        <v>45996</v>
+        <v>46001</v>
       </c>
       <c r="C92" s="2">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1708,13 +1708,13 @@
         <v>4</v>
       </c>
       <c r="B93" s="2">
-        <v>45997</v>
+        <v>46002</v>
       </c>
       <c r="C93" s="2">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1722,13 +1722,13 @@
         <v>4</v>
       </c>
       <c r="B94" s="2">
-        <v>45998</v>
+        <v>46004</v>
       </c>
       <c r="C94" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1736,13 +1736,13 @@
         <v>4</v>
       </c>
       <c r="B95" s="2">
-        <v>45998</v>
+        <v>46004</v>
       </c>
       <c r="C95" s="2">
-        <v>1401</v>
+        <v>99</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1750,10 +1750,10 @@
         <v>4</v>
       </c>
       <c r="B96" s="2">
-        <v>45999</v>
+        <v>46005</v>
       </c>
       <c r="C96" s="2">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>5</v>
@@ -1764,82 +1764,12 @@
         <v>4</v>
       </c>
       <c r="B97" s="2">
-        <v>46001</v>
+        <v>46005</v>
       </c>
       <c r="C97" s="2">
-        <v>8</v>
+        <v>925</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="A98" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B98" s="2">
-        <v>46001</v>
-      </c>
-      <c r="C98" s="2">
-        <v>1</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="A99" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B99" s="2">
-        <v>46001</v>
-      </c>
-      <c r="C99" s="2">
-        <v>1005</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="A100" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B100" s="2">
-        <v>46002</v>
-      </c>
-      <c r="C100" s="2">
-        <v>4</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
-      <c r="A101" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B101" s="2">
-        <v>46002</v>
-      </c>
-      <c r="C101" s="2">
-        <v>1</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
-      <c r="A102" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B102" s="2">
-        <v>46002</v>
-      </c>
-      <c r="C102" s="2">
-        <v>91</v>
-      </c>
-      <c r="D102" s="2" t="s">
         <v>5</v>
       </c>
     </row>

--- a/reports/Month to Date (Actual)_Visits.xlsx
+++ b/reports/Month to Date (Actual)_Visits.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="9">
   <si>
     <t>Resort</t>
   </si>
@@ -28,19 +28,19 @@
     <t>Location</t>
   </si>
   <si>
-    <t>Purgatory</t>
+    <t>Snowbowl</t>
   </si>
   <si>
-    <t>Purgatory Passes</t>
+    <t>Snowbowl Comp Tickets</t>
   </si>
   <si>
-    <t>Purgatory Comp Tickets</t>
+    <t>Snowbowl Passes</t>
   </si>
   <si>
-    <t>Purgatory Coaster</t>
+    <t>Snowbowl Uplift Tickets</t>
   </si>
   <si>
-    <t>Purgatory Tickets</t>
+    <t>Snowbowl Tickets</t>
   </si>
 </sst>
 </file>
@@ -403,16 +403,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D97"/>
+  <dimension ref="A1:D132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -434,10 +434,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2">
-        <v>45998</v>
+        <v>45992</v>
       </c>
       <c r="C2" s="2">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -448,13 +448,13 @@
         <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>45998</v>
+        <v>45994</v>
       </c>
       <c r="C3" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -462,10 +462,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>46000</v>
+        <v>45995</v>
       </c>
       <c r="C4" s="2">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>5</v>
@@ -476,13 +476,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>46001</v>
+        <v>45998</v>
       </c>
       <c r="C5" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -490,10 +490,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>46001</v>
+        <v>45998</v>
       </c>
       <c r="C6" s="2">
-        <v>1</v>
+        <v>166</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>5</v>
@@ -504,10 +504,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="2">
-        <v>46002</v>
+        <v>46000</v>
       </c>
       <c r="C7" s="2">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>6</v>
@@ -518,13 +518,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="2">
-        <v>46003</v>
+        <v>46001</v>
       </c>
       <c r="C8" s="2">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -532,10 +532,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="2">
-        <v>46003</v>
+        <v>46001</v>
       </c>
       <c r="C9" s="2">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>5</v>
@@ -546,13 +546,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="2">
-        <v>46004</v>
+        <v>46002</v>
       </c>
       <c r="C10" s="2">
-        <v>3</v>
+        <v>82</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -560,13 +560,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="2">
-        <v>46005</v>
+        <v>46003</v>
       </c>
       <c r="C11" s="2">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -574,13 +574,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="2">
-        <v>46005</v>
+        <v>46004</v>
       </c>
       <c r="C12" s="2">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -588,13 +588,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="2">
-        <v>46005</v>
+        <v>46004</v>
       </c>
       <c r="C13" s="2">
-        <v>54</v>
+        <v>1591</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -602,13 +602,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="2">
-        <v>45992</v>
+        <v>46005</v>
       </c>
       <c r="C14" s="2">
-        <v>14</v>
+        <v>339</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -616,13 +616,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="2">
-        <v>45993</v>
+        <v>45992</v>
       </c>
       <c r="C15" s="2">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -633,10 +633,10 @@
         <v>45993</v>
       </c>
       <c r="C16" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -644,10 +644,10 @@
         <v>4</v>
       </c>
       <c r="B17" s="2">
-        <v>45994</v>
+        <v>45993</v>
       </c>
       <c r="C17" s="2">
-        <v>64</v>
+        <v>738</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>8</v>
@@ -658,13 +658,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="2">
-        <v>45995</v>
+        <v>45993</v>
       </c>
       <c r="C18" s="2">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -672,13 +672,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="2">
-        <v>45996</v>
+        <v>45994</v>
       </c>
       <c r="C19" s="2">
-        <v>411</v>
+        <v>10</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -689,10 +689,10 @@
         <v>45996</v>
       </c>
       <c r="C20" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -700,13 +700,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="2">
-        <v>45997</v>
+        <v>45996</v>
       </c>
       <c r="C21" s="2">
-        <v>247</v>
+        <v>85</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -714,13 +714,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="2">
-        <v>45999</v>
+        <v>45997</v>
       </c>
       <c r="C22" s="2">
-        <v>358</v>
+        <v>13</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -728,13 +728,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="2">
-        <v>45999</v>
+        <v>45997</v>
       </c>
       <c r="C23" s="2">
-        <v>4</v>
+        <v>1192</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -742,13 +742,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="2">
-        <v>46000</v>
+        <v>45999</v>
       </c>
       <c r="C24" s="2">
-        <v>118</v>
+        <v>7</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -756,13 +756,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="2">
-        <v>46002</v>
+        <v>45999</v>
       </c>
       <c r="C25" s="2">
-        <v>321</v>
+        <v>97</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -770,13 +770,13 @@
         <v>4</v>
       </c>
       <c r="B26" s="2">
-        <v>46003</v>
+        <v>46000</v>
       </c>
       <c r="C26" s="2">
-        <v>213</v>
+        <v>570</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -784,13 +784,13 @@
         <v>4</v>
       </c>
       <c r="B27" s="2">
-        <v>46004</v>
+        <v>46001</v>
       </c>
       <c r="C27" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -798,13 +798,13 @@
         <v>4</v>
       </c>
       <c r="B28" s="2">
-        <v>45992</v>
+        <v>46003</v>
       </c>
       <c r="C28" s="2">
-        <v>49</v>
+        <v>997</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -812,13 +812,13 @@
         <v>4</v>
       </c>
       <c r="B29" s="2">
-        <v>45995</v>
+        <v>46004</v>
       </c>
       <c r="C29" s="2">
-        <v>73</v>
+        <v>245</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -826,13 +826,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="2">
-        <v>45996</v>
+        <v>45992</v>
       </c>
       <c r="C30" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -840,13 +840,13 @@
         <v>4</v>
       </c>
       <c r="B31" s="2">
-        <v>45996</v>
+        <v>45992</v>
       </c>
       <c r="C31" s="2">
         <v>1</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -854,13 +854,13 @@
         <v>4</v>
       </c>
       <c r="B32" s="2">
-        <v>45997</v>
+        <v>45994</v>
       </c>
       <c r="C32" s="2">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -868,13 +868,13 @@
         <v>4</v>
       </c>
       <c r="B33" s="2">
-        <v>45998</v>
+        <v>45994</v>
       </c>
       <c r="C33" s="2">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -882,13 +882,13 @@
         <v>4</v>
       </c>
       <c r="B34" s="2">
-        <v>46003</v>
+        <v>45995</v>
       </c>
       <c r="C34" s="2">
         <v>1</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -896,13 +896,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="2">
-        <v>46004</v>
+        <v>45996</v>
       </c>
       <c r="C35" s="2">
-        <v>1130</v>
+        <v>1</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -910,13 +910,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="2">
-        <v>46004</v>
+        <v>45997</v>
       </c>
       <c r="C36" s="2">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -924,13 +924,13 @@
         <v>4</v>
       </c>
       <c r="B37" s="2">
-        <v>45992</v>
+        <v>45998</v>
       </c>
       <c r="C37" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -938,13 +938,13 @@
         <v>4</v>
       </c>
       <c r="B38" s="2">
-        <v>45993</v>
+        <v>45999</v>
       </c>
       <c r="C38" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -952,13 +952,13 @@
         <v>4</v>
       </c>
       <c r="B39" s="2">
-        <v>45994</v>
+        <v>46000</v>
       </c>
       <c r="C39" s="2">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -966,13 +966,13 @@
         <v>4</v>
       </c>
       <c r="B40" s="2">
-        <v>45995</v>
+        <v>46001</v>
       </c>
       <c r="C40" s="2">
-        <v>357</v>
+        <v>87</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -980,13 +980,13 @@
         <v>4</v>
       </c>
       <c r="B41" s="2">
-        <v>45997</v>
+        <v>46002</v>
       </c>
       <c r="C41" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -994,13 +994,13 @@
         <v>4</v>
       </c>
       <c r="B42" s="2">
-        <v>45997</v>
+        <v>46002</v>
       </c>
       <c r="C42" s="2">
-        <v>10</v>
+        <v>741</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1008,13 +1008,13 @@
         <v>4</v>
       </c>
       <c r="B43" s="2">
-        <v>45998</v>
+        <v>46003</v>
       </c>
       <c r="C43" s="2">
-        <v>1061</v>
+        <v>2</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1022,13 +1022,13 @@
         <v>4</v>
       </c>
       <c r="B44" s="2">
-        <v>45998</v>
+        <v>46004</v>
       </c>
       <c r="C44" s="2">
-        <v>141</v>
+        <v>417</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1036,13 +1036,13 @@
         <v>4</v>
       </c>
       <c r="B45" s="2">
-        <v>46000</v>
+        <v>46005</v>
       </c>
       <c r="C45" s="2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1050,13 +1050,13 @@
         <v>4</v>
       </c>
       <c r="B46" s="2">
-        <v>46001</v>
+        <v>46005</v>
       </c>
       <c r="C46" s="2">
-        <v>398</v>
+        <v>993</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1064,13 +1064,13 @@
         <v>4</v>
       </c>
       <c r="B47" s="2">
-        <v>46001</v>
+        <v>45993</v>
       </c>
       <c r="C47" s="2">
-        <v>134</v>
+        <v>8</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1078,13 +1078,13 @@
         <v>4</v>
       </c>
       <c r="B48" s="2">
-        <v>46003</v>
+        <v>45994</v>
       </c>
       <c r="C48" s="2">
-        <v>2</v>
+        <v>593</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1092,13 +1092,13 @@
         <v>4</v>
       </c>
       <c r="B49" s="2">
-        <v>46004</v>
+        <v>45996</v>
       </c>
       <c r="C49" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1106,13 +1106,13 @@
         <v>4</v>
       </c>
       <c r="B50" s="2">
-        <v>46004</v>
+        <v>45996</v>
       </c>
       <c r="C50" s="2">
-        <v>447</v>
+        <v>2</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1120,13 +1120,13 @@
         <v>4</v>
       </c>
       <c r="B51" s="2">
-        <v>45992</v>
+        <v>45996</v>
       </c>
       <c r="C51" s="2">
-        <v>1</v>
+        <v>1091</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1134,10 +1134,10 @@
         <v>4</v>
       </c>
       <c r="B52" s="2">
-        <v>45993</v>
+        <v>45999</v>
       </c>
       <c r="C52" s="2">
-        <v>64</v>
+        <v>1058</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>8</v>
@@ -1148,13 +1148,13 @@
         <v>4</v>
       </c>
       <c r="B53" s="2">
-        <v>45996</v>
+        <v>46000</v>
       </c>
       <c r="C53" s="2">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1162,13 +1162,13 @@
         <v>4</v>
       </c>
       <c r="B54" s="2">
-        <v>45999</v>
+        <v>46002</v>
       </c>
       <c r="C54" s="2">
-        <v>115</v>
+        <v>4</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1176,13 +1176,13 @@
         <v>4</v>
       </c>
       <c r="B55" s="2">
-        <v>46000</v>
+        <v>46002</v>
       </c>
       <c r="C55" s="2">
-        <v>322</v>
+        <v>1080</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1190,10 +1190,10 @@
         <v>4</v>
       </c>
       <c r="B56" s="2">
-        <v>46002</v>
+        <v>46003</v>
       </c>
       <c r="C56" s="2">
-        <v>5</v>
+        <v>133</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>5</v>
@@ -1204,13 +1204,13 @@
         <v>4</v>
       </c>
       <c r="B57" s="2">
-        <v>46003</v>
+        <v>46005</v>
       </c>
       <c r="C57" s="2">
-        <v>538</v>
+        <v>1</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1218,13 +1218,13 @@
         <v>4</v>
       </c>
       <c r="B58" s="2">
-        <v>46004</v>
+        <v>46005</v>
       </c>
       <c r="C58" s="2">
-        <v>132</v>
+        <v>1548</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1232,13 +1232,13 @@
         <v>4</v>
       </c>
       <c r="B59" s="2">
-        <v>46005</v>
+        <v>45992</v>
       </c>
       <c r="C59" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1246,13 +1246,13 @@
         <v>4</v>
       </c>
       <c r="B60" s="2">
-        <v>46005</v>
+        <v>45994</v>
       </c>
       <c r="C60" s="2">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1260,10 +1260,10 @@
         <v>4</v>
       </c>
       <c r="B61" s="2">
-        <v>45992</v>
+        <v>45994</v>
       </c>
       <c r="C61" s="2">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>5</v>
@@ -1274,10 +1274,10 @@
         <v>4</v>
       </c>
       <c r="B62" s="2">
-        <v>45994</v>
+        <v>45997</v>
       </c>
       <c r="C62" s="2">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>6</v>
@@ -1288,10 +1288,10 @@
         <v>4</v>
       </c>
       <c r="B63" s="2">
-        <v>45994</v>
+        <v>45997</v>
       </c>
       <c r="C63" s="2">
-        <v>279</v>
+        <v>173</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>5</v>
@@ -1302,13 +1302,13 @@
         <v>4</v>
       </c>
       <c r="B64" s="2">
-        <v>45995</v>
+        <v>45999</v>
       </c>
       <c r="C64" s="2">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1316,13 +1316,13 @@
         <v>4</v>
       </c>
       <c r="B65" s="2">
-        <v>45996</v>
+        <v>46000</v>
       </c>
       <c r="C65" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1330,13 +1330,13 @@
         <v>4</v>
       </c>
       <c r="B66" s="2">
-        <v>45997</v>
+        <v>46000</v>
       </c>
       <c r="C66" s="2">
-        <v>50</v>
+        <v>913</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1344,13 +1344,13 @@
         <v>4</v>
       </c>
       <c r="B67" s="2">
-        <v>45997</v>
+        <v>46002</v>
       </c>
       <c r="C67" s="2">
-        <v>1156</v>
+        <v>79</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1358,13 +1358,13 @@
         <v>4</v>
       </c>
       <c r="B68" s="2">
-        <v>45998</v>
+        <v>46003</v>
       </c>
       <c r="C68" s="2">
-        <v>132</v>
+        <v>1</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1372,13 +1372,13 @@
         <v>4</v>
       </c>
       <c r="B69" s="2">
-        <v>46000</v>
+        <v>46003</v>
       </c>
       <c r="C69" s="2">
-        <v>21</v>
+        <v>1104</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1386,13 +1386,13 @@
         <v>4</v>
       </c>
       <c r="B70" s="2">
-        <v>46001</v>
+        <v>46004</v>
       </c>
       <c r="C70" s="2">
-        <v>101</v>
+        <v>2</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1400,13 +1400,13 @@
         <v>4</v>
       </c>
       <c r="B71" s="2">
-        <v>46002</v>
+        <v>46004</v>
       </c>
       <c r="C71" s="2">
-        <v>174</v>
+        <v>15</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1414,10 +1414,10 @@
         <v>4</v>
       </c>
       <c r="B72" s="2">
-        <v>46003</v>
+        <v>46005</v>
       </c>
       <c r="C72" s="2">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>6</v>
@@ -1428,10 +1428,10 @@
         <v>4</v>
       </c>
       <c r="B73" s="2">
-        <v>46004</v>
+        <v>45992</v>
       </c>
       <c r="C73" s="2">
-        <v>248</v>
+        <v>117</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>7</v>
@@ -1442,13 +1442,13 @@
         <v>4</v>
       </c>
       <c r="B74" s="2">
-        <v>46005</v>
+        <v>45993</v>
       </c>
       <c r="C74" s="2">
-        <v>332</v>
+        <v>66</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1456,13 +1456,13 @@
         <v>4</v>
       </c>
       <c r="B75" s="2">
-        <v>45992</v>
+        <v>45993</v>
       </c>
       <c r="C75" s="2">
-        <v>2</v>
+        <v>488</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1470,10 +1470,10 @@
         <v>4</v>
       </c>
       <c r="B76" s="2">
-        <v>45993</v>
+        <v>45994</v>
       </c>
       <c r="C76" s="2">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>6</v>
@@ -1484,13 +1484,13 @@
         <v>4</v>
       </c>
       <c r="B77" s="2">
-        <v>45993</v>
+        <v>45994</v>
       </c>
       <c r="C77" s="2">
-        <v>183</v>
+        <v>712</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1498,13 +1498,13 @@
         <v>4</v>
       </c>
       <c r="B78" s="2">
-        <v>45994</v>
+        <v>45995</v>
       </c>
       <c r="C78" s="2">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1515,10 +1515,10 @@
         <v>45995</v>
       </c>
       <c r="C79" s="2">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1529,7 +1529,7 @@
         <v>45996</v>
       </c>
       <c r="C80" s="2">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>6</v>
@@ -1540,13 +1540,13 @@
         <v>4</v>
       </c>
       <c r="B81" s="2">
-        <v>45997</v>
+        <v>45996</v>
       </c>
       <c r="C81" s="2">
-        <v>115</v>
+        <v>1326</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1554,10 +1554,10 @@
         <v>4</v>
       </c>
       <c r="B82" s="2">
-        <v>45999</v>
+        <v>45997</v>
       </c>
       <c r="C82" s="2">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>6</v>
@@ -1568,13 +1568,13 @@
         <v>4</v>
       </c>
       <c r="B83" s="2">
-        <v>46005</v>
+        <v>45997</v>
       </c>
       <c r="C83" s="2">
-        <v>4</v>
+        <v>1627</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1582,13 +1582,13 @@
         <v>4</v>
       </c>
       <c r="B84" s="2">
-        <v>46005</v>
+        <v>45998</v>
       </c>
       <c r="C84" s="2">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1596,13 +1596,13 @@
         <v>4</v>
       </c>
       <c r="B85" s="2">
-        <v>45994</v>
+        <v>45998</v>
       </c>
       <c r="C85" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1610,13 +1610,13 @@
         <v>4</v>
       </c>
       <c r="B86" s="2">
-        <v>45996</v>
+        <v>45999</v>
       </c>
       <c r="C86" s="2">
-        <v>70</v>
+        <v>718</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1624,13 +1624,13 @@
         <v>4</v>
       </c>
       <c r="B87" s="2">
-        <v>45997</v>
+        <v>45999</v>
       </c>
       <c r="C87" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1638,13 +1638,13 @@
         <v>4</v>
       </c>
       <c r="B88" s="2">
-        <v>45997</v>
+        <v>46000</v>
       </c>
       <c r="C88" s="2">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1652,13 +1652,13 @@
         <v>4</v>
       </c>
       <c r="B89" s="2">
-        <v>45998</v>
+        <v>46001</v>
       </c>
       <c r="C89" s="2">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1666,10 +1666,10 @@
         <v>4</v>
       </c>
       <c r="B90" s="2">
-        <v>45998</v>
+        <v>46003</v>
       </c>
       <c r="C90" s="2">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>6</v>
@@ -1680,13 +1680,13 @@
         <v>4</v>
       </c>
       <c r="B91" s="2">
-        <v>45999</v>
+        <v>45992</v>
       </c>
       <c r="C91" s="2">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1694,10 +1694,10 @@
         <v>4</v>
       </c>
       <c r="B92" s="2">
-        <v>46001</v>
+        <v>45992</v>
       </c>
       <c r="C92" s="2">
-        <v>25</v>
+        <v>656</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>6</v>
@@ -1708,13 +1708,13 @@
         <v>4</v>
       </c>
       <c r="B93" s="2">
-        <v>46002</v>
+        <v>45992</v>
       </c>
       <c r="C93" s="2">
-        <v>93</v>
+        <v>797</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1722,13 +1722,13 @@
         <v>4</v>
       </c>
       <c r="B94" s="2">
-        <v>46004</v>
+        <v>45995</v>
       </c>
       <c r="C94" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1736,10 +1736,10 @@
         <v>4</v>
       </c>
       <c r="B95" s="2">
-        <v>46004</v>
+        <v>45995</v>
       </c>
       <c r="C95" s="2">
-        <v>99</v>
+        <v>803</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>6</v>
@@ -1750,13 +1750,13 @@
         <v>4</v>
       </c>
       <c r="B96" s="2">
-        <v>46005</v>
+        <v>45995</v>
       </c>
       <c r="C96" s="2">
-        <v>105</v>
+        <v>865</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1764,13 +1764,503 @@
         <v>4</v>
       </c>
       <c r="B97" s="2">
-        <v>46005</v>
+        <v>45996</v>
       </c>
       <c r="C97" s="2">
-        <v>925</v>
+        <v>93</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B98" s="2">
+        <v>45997</v>
+      </c>
+      <c r="C98" s="2">
+        <v>1</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B99" s="2">
+        <v>45998</v>
+      </c>
+      <c r="C99" s="2">
+        <v>1</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B100" s="2">
+        <v>45998</v>
+      </c>
+      <c r="C100" s="2">
+        <v>1401</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B101" s="2">
+        <v>45999</v>
+      </c>
+      <c r="C101" s="2">
+        <v>77</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B102" s="2">
+        <v>46001</v>
+      </c>
+      <c r="C102" s="2">
+        <v>8</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B103" s="2">
+        <v>46001</v>
+      </c>
+      <c r="C103" s="2">
+        <v>1</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B104" s="2">
+        <v>46001</v>
+      </c>
+      <c r="C104" s="2">
+        <v>1004</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B105" s="2">
+        <v>46002</v>
+      </c>
+      <c r="C105" s="2">
+        <v>4</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B106" s="2">
+        <v>46002</v>
+      </c>
+      <c r="C106" s="2">
+        <v>1</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B107" s="2">
+        <v>46002</v>
+      </c>
+      <c r="C107" s="2">
+        <v>91</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B108" s="2">
+        <v>46003</v>
+      </c>
+      <c r="C108" s="2">
+        <v>1</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B109" s="2">
+        <v>46004</v>
+      </c>
+      <c r="C109" s="2">
+        <v>5</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B110" s="2">
+        <v>46005</v>
+      </c>
+      <c r="C110" s="2">
+        <v>2</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B111" s="2">
+        <v>46005</v>
+      </c>
+      <c r="C111" s="2">
+        <v>2</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B112" s="2">
+        <v>46005</v>
+      </c>
+      <c r="C112" s="2">
+        <v>3</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B113" s="2">
+        <v>46005</v>
+      </c>
+      <c r="C113" s="2">
+        <v>187</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B114" s="2">
+        <v>45992</v>
+      </c>
+      <c r="C114" s="2">
+        <v>1</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B115" s="2">
+        <v>45993</v>
+      </c>
+      <c r="C115" s="2">
+        <v>8</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B116" s="2">
+        <v>45993</v>
+      </c>
+      <c r="C116" s="2">
+        <v>67</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B117" s="2">
+        <v>45994</v>
+      </c>
+      <c r="C117" s="2">
+        <v>33</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B118" s="2">
+        <v>45995</v>
+      </c>
+      <c r="C118" s="2">
+        <v>67</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B119" s="2">
+        <v>45997</v>
+      </c>
+      <c r="C119" s="2">
+        <v>235</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B120" s="2">
+        <v>45997</v>
+      </c>
+      <c r="C120" s="2">
+        <v>1</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B121" s="2">
+        <v>45998</v>
+      </c>
+      <c r="C121" s="2">
+        <v>93</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B122" s="2">
+        <v>45998</v>
+      </c>
+      <c r="C122" s="2">
+        <v>1151</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B123" s="2">
+        <v>45999</v>
+      </c>
+      <c r="C123" s="2">
+        <v>2</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B124" s="2">
+        <v>46000</v>
+      </c>
+      <c r="C124" s="2">
+        <v>7</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B125" s="2">
+        <v>46000</v>
+      </c>
+      <c r="C125" s="2">
+        <v>53</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B126" s="2">
+        <v>46001</v>
+      </c>
+      <c r="C126" s="2">
+        <v>97</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B127" s="2">
+        <v>46001</v>
+      </c>
+      <c r="C127" s="2">
+        <v>725</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B128" s="2">
+        <v>46003</v>
+      </c>
+      <c r="C128" s="2">
+        <v>13</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B129" s="2">
+        <v>46003</v>
+      </c>
+      <c r="C129" s="2">
+        <v>68</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B130" s="2">
+        <v>46004</v>
+      </c>
+      <c r="C130" s="2">
+        <v>70</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B131" s="2">
+        <v>46004</v>
+      </c>
+      <c r="C131" s="2">
+        <v>847</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B132" s="2">
+        <v>46005</v>
+      </c>
+      <c r="C132" s="2">
+        <v>1</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
